--- a/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.270469398493788</v>
+        <v>4.270469398493844</v>
       </c>
       <c r="C2">
-        <v>3.547475726561117</v>
+        <v>3.547475726561402</v>
       </c>
       <c r="D2">
-        <v>0.2235195212144987</v>
+        <v>0.223519521215124</v>
       </c>
       <c r="E2">
-        <v>1.57157549922394</v>
+        <v>1.571575499223954</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.941772438106852</v>
+        <v>9.941772438107051</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.563994944012677</v>
+        <v>3.563994944012791</v>
       </c>
       <c r="C3">
-        <v>2.986550416885848</v>
+        <v>2.986550416886757</v>
       </c>
       <c r="D3">
-        <v>0.189075373877813</v>
+        <v>0.1890753738775288</v>
       </c>
       <c r="E3">
-        <v>1.312864353270456</v>
+        <v>1.312864353270442</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.524150034710061</v>
+        <v>8.52415003471026</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.158054219069072</v>
+        <v>3.158054219069356</v>
       </c>
       <c r="C4">
         <v>2.660925834255124</v>
       </c>
       <c r="D4">
-        <v>0.1690053749666305</v>
+        <v>0.1690053749671847</v>
       </c>
       <c r="E4">
-        <v>1.164182817158391</v>
+        <v>1.164182817158462</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.695004150192943</v>
+        <v>7.695004150192887</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.998165830899097</v>
+        <v>2.99816583089887</v>
       </c>
       <c r="C5">
-        <v>2.531960420357734</v>
+        <v>2.531960420357677</v>
       </c>
       <c r="D5">
-        <v>0.1610426509853085</v>
+        <v>0.1610426509851806</v>
       </c>
       <c r="E5">
-        <v>1.105583955532254</v>
+        <v>1.105583955532182</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.365336597141152</v>
+        <v>7.365336597141322</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.971914324077318</v>
+        <v>2.971914324077602</v>
       </c>
       <c r="C6">
-        <v>2.510746185335847</v>
+        <v>2.510746185336416</v>
       </c>
       <c r="D6">
-        <v>0.1597321000262468</v>
+        <v>0.1597321000261616</v>
       </c>
       <c r="E6">
-        <v>1.095959848903917</v>
+        <v>1.09595984890386</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.311037278236739</v>
+        <v>7.311037278236483</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.155877183594953</v>
+        <v>3.155877183594839</v>
       </c>
       <c r="C7">
-        <v>2.659172612058967</v>
+        <v>2.659172612058455</v>
       </c>
       <c r="D7">
-        <v>0.1688971767210461</v>
+        <v>0.1688971767211456</v>
       </c>
       <c r="E7">
-        <v>1.163385123578081</v>
+        <v>1.16338512357818</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.690527389948244</v>
+        <v>7.690527389948159</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.020097811841481</v>
+        <v>4.020097811840969</v>
       </c>
       <c r="C8">
-        <v>3.349490635248856</v>
+        <v>3.349490635247889</v>
       </c>
       <c r="D8">
-        <v>0.2113816511019166</v>
+        <v>0.2113816511015472</v>
       </c>
       <c r="E8">
-        <v>1.479871044256527</v>
+        <v>1.479871044256555</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.442939478006537</v>
+        <v>9.442939478006451</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.029052506278845</v>
+        <v>6.029052506279072</v>
       </c>
       <c r="C9">
-        <v>4.915354001537992</v>
+        <v>4.915354001539072</v>
       </c>
       <c r="D9">
-        <v>0.3067204757373361</v>
+        <v>0.3067204757378192</v>
       </c>
       <c r="E9">
-        <v>2.218109836796998</v>
+        <v>2.218109836796955</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13.34203215152857</v>
+        <v>13.34203215152831</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.908006419558603</v>
+        <v>7.90800641955866</v>
       </c>
       <c r="C10">
-        <v>6.337256253204146</v>
+        <v>6.337256253203122</v>
       </c>
       <c r="D10">
-        <v>0.3917689132894822</v>
+        <v>0.3917689132902922</v>
       </c>
       <c r="E10">
-        <v>2.918721961154318</v>
+        <v>2.918721961154361</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16.78646720806955</v>
+        <v>16.78646720806944</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.948571998151465</v>
+        <v>8.948571998151749</v>
       </c>
       <c r="C11">
-        <v>7.108784359035781</v>
+        <v>7.108784359037372</v>
       </c>
       <c r="D11">
-        <v>0.4371806202839963</v>
+        <v>0.4371806202836837</v>
       </c>
       <c r="E11">
         <v>3.313977034048492</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18.61333680611108</v>
+        <v>18.61333680611091</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.387006640469224</v>
+        <v>9.387006640469508</v>
       </c>
       <c r="C12">
-        <v>7.430662821364308</v>
+        <v>7.430662821364649</v>
       </c>
       <c r="D12">
-        <v>0.4559521411611911</v>
+        <v>0.4559521411608785</v>
       </c>
       <c r="E12">
-        <v>3.482571923558737</v>
+        <v>3.482571923558723</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19.36604212744345</v>
+        <v>19.36604212744425</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.290141903797632</v>
+        <v>9.290141903797803</v>
       </c>
       <c r="C13">
-        <v>7.359708692018899</v>
+        <v>7.35970869201833</v>
       </c>
       <c r="D13">
-        <v>0.4518234849962823</v>
+        <v>0.451823484997476</v>
       </c>
       <c r="E13">
         <v>3.445206711704287</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19.20061258790997</v>
+        <v>19.20061258790963</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.983593053713093</v>
+        <v>8.983593053713037</v>
       </c>
       <c r="C14">
-        <v>7.134563647409777</v>
+        <v>7.134563647410118</v>
       </c>
       <c r="D14">
-        <v>0.438687970255188</v>
+        <v>0.4386879702556286</v>
       </c>
       <c r="E14">
-        <v>3.327395197501545</v>
+        <v>3.327395197501517</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18.67383168027175</v>
+        <v>18.67383168027158</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.802393635136525</v>
+        <v>8.802393635136582</v>
       </c>
       <c r="C15">
-        <v>7.001051682550269</v>
+        <v>7.001051682550724</v>
       </c>
       <c r="D15">
-        <v>0.4308740965227429</v>
+        <v>0.4308740965234676</v>
       </c>
       <c r="E15">
         <v>3.258056695366733</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18.36013522942278</v>
+        <v>18.36013522942204</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.844946254100591</v>
+        <v>7.844946254100705</v>
       </c>
       <c r="C16">
-        <v>6.290147722908614</v>
+        <v>6.290147722907818</v>
       </c>
       <c r="D16">
-        <v>0.3889781732026307</v>
+        <v>0.3889781732027728</v>
       </c>
       <c r="E16">
-        <v>2.894962895303394</v>
+        <v>2.894962895303351</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16.6739223900359</v>
+        <v>16.67392239003556</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.313940705752486</v>
+        <v>7.313940705752827</v>
       </c>
       <c r="C17">
-        <v>5.891819769671883</v>
+        <v>5.891819769672338</v>
       </c>
       <c r="D17">
-        <v>0.3653034016129055</v>
+        <v>0.3653034016132466</v>
       </c>
       <c r="E17">
-        <v>2.695658332842129</v>
+        <v>2.695658332842086</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15.71787158166728</v>
+        <v>15.71787158166745</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.024528503627437</v>
+        <v>7.024528503627664</v>
       </c>
       <c r="C18">
-        <v>5.673461532002989</v>
+        <v>5.673461532003103</v>
       </c>
       <c r="D18">
-        <v>0.3522682893790972</v>
+        <v>0.3522682893793814</v>
       </c>
       <c r="E18">
-        <v>2.587560048161933</v>
+        <v>2.587560048162018</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15.19048378677795</v>
+        <v>15.190483786778</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.928946606535362</v>
+        <v>6.928946606535476</v>
       </c>
       <c r="C19">
-        <v>5.601147500126785</v>
+        <v>5.601147500127468</v>
       </c>
       <c r="D19">
-        <v>0.3479428553224011</v>
+        <v>0.3479428553221595</v>
       </c>
       <c r="E19">
         <v>2.551934067138433</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15.01532385083104</v>
+        <v>15.01532385083084</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.368724014635404</v>
+        <v>7.368724014635575</v>
       </c>
       <c r="C20">
-        <v>5.933052279203594</v>
+        <v>5.933052279203821</v>
       </c>
       <c r="D20">
-        <v>0.3677603760497732</v>
+        <v>0.3677603760494179</v>
       </c>
       <c r="E20">
-        <v>2.716160467273852</v>
+        <v>2.716160467273738</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.072207045274865</v>
+        <v>9.072207045274922</v>
       </c>
       <c r="C21">
-        <v>7.199739783747759</v>
+        <v>7.199739783747305</v>
       </c>
       <c r="D21">
-        <v>0.4424958882692636</v>
+        <v>0.4424958882692778</v>
       </c>
       <c r="E21">
-        <v>3.361384137757341</v>
+        <v>3.361384137757284</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18.82661475763484</v>
+        <v>18.82661475763467</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>10.46944277848672</v>
       </c>
       <c r="C22">
-        <v>8.21755239551851</v>
+        <v>8.217552395518169</v>
       </c>
       <c r="D22">
-        <v>0.5013647362616069</v>
+        <v>0.501364736261948</v>
       </c>
       <c r="E22">
-        <v>3.90520646524169</v>
+        <v>3.905206465241633</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21.18114936048556</v>
+        <v>21.18114936048568</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.68623486557658</v>
+        <v>9.686234865576296</v>
       </c>
       <c r="C23">
-        <v>7.649285243362215</v>
+        <v>7.649285243361419</v>
       </c>
       <c r="D23">
-        <v>0.4686392400285371</v>
+        <v>0.468639240029205</v>
       </c>
       <c r="E23">
-        <v>3.598442171974568</v>
+        <v>3.598442171974597</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19.87396645558533</v>
+        <v>19.87396645558539</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.343908115362922</v>
+        <v>7.343908115362524</v>
       </c>
       <c r="C24">
-        <v>5.914378613656027</v>
+        <v>5.91437861365614</v>
       </c>
       <c r="D24">
-        <v>0.3666478213267368</v>
+        <v>0.3666478213264384</v>
       </c>
       <c r="E24">
-        <v>2.706871723655411</v>
+        <v>2.706871723655439</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15.77222515007156</v>
+        <v>15.77222515007139</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.43571489729959</v>
+        <v>5.435714897299363</v>
       </c>
       <c r="C25">
-        <v>4.458094132928693</v>
+        <v>4.458094132929261</v>
       </c>
       <c r="D25">
-        <v>0.279044187475904</v>
+        <v>0.2790441874763729</v>
       </c>
       <c r="E25">
-        <v>1.999307023459309</v>
+        <v>1.999307023459181</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12.21447608666787</v>
+        <v>12.21447608666776</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.270469398493844</v>
+        <v>4.270469398493788</v>
       </c>
       <c r="C2">
-        <v>3.547475726561402</v>
+        <v>3.547475726561117</v>
       </c>
       <c r="D2">
-        <v>0.223519521215124</v>
+        <v>0.2235195212144987</v>
       </c>
       <c r="E2">
-        <v>1.571575499223954</v>
+        <v>1.57157549922394</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.941772438107051</v>
+        <v>9.941772438106852</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.563994944012791</v>
+        <v>3.563994944012677</v>
       </c>
       <c r="C3">
-        <v>2.986550416886757</v>
+        <v>2.986550416885848</v>
       </c>
       <c r="D3">
-        <v>0.1890753738775288</v>
+        <v>0.189075373877813</v>
       </c>
       <c r="E3">
-        <v>1.312864353270442</v>
+        <v>1.312864353270456</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.52415003471026</v>
+        <v>8.524150034710061</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.158054219069356</v>
+        <v>3.158054219069072</v>
       </c>
       <c r="C4">
         <v>2.660925834255124</v>
       </c>
       <c r="D4">
-        <v>0.1690053749671847</v>
+        <v>0.1690053749666305</v>
       </c>
       <c r="E4">
-        <v>1.164182817158462</v>
+        <v>1.164182817158391</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.695004150192887</v>
+        <v>7.695004150192943</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.99816583089887</v>
+        <v>2.998165830899097</v>
       </c>
       <c r="C5">
-        <v>2.531960420357677</v>
+        <v>2.531960420357734</v>
       </c>
       <c r="D5">
-        <v>0.1610426509851806</v>
+        <v>0.1610426509853085</v>
       </c>
       <c r="E5">
-        <v>1.105583955532182</v>
+        <v>1.105583955532254</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.365336597141322</v>
+        <v>7.365336597141152</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.971914324077602</v>
+        <v>2.971914324077318</v>
       </c>
       <c r="C6">
-        <v>2.510746185336416</v>
+        <v>2.510746185335847</v>
       </c>
       <c r="D6">
-        <v>0.1597321000261616</v>
+        <v>0.1597321000262468</v>
       </c>
       <c r="E6">
-        <v>1.09595984890386</v>
+        <v>1.095959848903917</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.311037278236483</v>
+        <v>7.311037278236739</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.155877183594839</v>
+        <v>3.155877183594953</v>
       </c>
       <c r="C7">
-        <v>2.659172612058455</v>
+        <v>2.659172612058967</v>
       </c>
       <c r="D7">
-        <v>0.1688971767211456</v>
+        <v>0.1688971767210461</v>
       </c>
       <c r="E7">
-        <v>1.16338512357818</v>
+        <v>1.163385123578081</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.690527389948159</v>
+        <v>7.690527389948244</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.020097811840969</v>
+        <v>4.020097811841481</v>
       </c>
       <c r="C8">
-        <v>3.349490635247889</v>
+        <v>3.349490635248856</v>
       </c>
       <c r="D8">
-        <v>0.2113816511015472</v>
+        <v>0.2113816511019166</v>
       </c>
       <c r="E8">
-        <v>1.479871044256555</v>
+        <v>1.479871044256527</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.442939478006451</v>
+        <v>9.442939478006537</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.029052506279072</v>
+        <v>6.029052506278845</v>
       </c>
       <c r="C9">
-        <v>4.915354001539072</v>
+        <v>4.915354001537992</v>
       </c>
       <c r="D9">
-        <v>0.3067204757378192</v>
+        <v>0.3067204757373361</v>
       </c>
       <c r="E9">
-        <v>2.218109836796955</v>
+        <v>2.218109836796998</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13.34203215152831</v>
+        <v>13.34203215152857</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.90800641955866</v>
+        <v>7.908006419558603</v>
       </c>
       <c r="C10">
-        <v>6.337256253203122</v>
+        <v>6.337256253204146</v>
       </c>
       <c r="D10">
-        <v>0.3917689132902922</v>
+        <v>0.3917689132894822</v>
       </c>
       <c r="E10">
-        <v>2.918721961154361</v>
+        <v>2.918721961154318</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16.78646720806944</v>
+        <v>16.78646720806955</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.948571998151749</v>
+        <v>8.948571998151465</v>
       </c>
       <c r="C11">
-        <v>7.108784359037372</v>
+        <v>7.108784359035781</v>
       </c>
       <c r="D11">
-        <v>0.4371806202836837</v>
+        <v>0.4371806202839963</v>
       </c>
       <c r="E11">
         <v>3.313977034048492</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18.61333680611091</v>
+        <v>18.61333680611108</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.387006640469508</v>
+        <v>9.387006640469224</v>
       </c>
       <c r="C12">
-        <v>7.430662821364649</v>
+        <v>7.430662821364308</v>
       </c>
       <c r="D12">
-        <v>0.4559521411608785</v>
+        <v>0.4559521411611911</v>
       </c>
       <c r="E12">
-        <v>3.482571923558723</v>
+        <v>3.482571923558737</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19.36604212744425</v>
+        <v>19.36604212744345</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.290141903797803</v>
+        <v>9.290141903797632</v>
       </c>
       <c r="C13">
-        <v>7.35970869201833</v>
+        <v>7.359708692018899</v>
       </c>
       <c r="D13">
-        <v>0.451823484997476</v>
+        <v>0.4518234849962823</v>
       </c>
       <c r="E13">
         <v>3.445206711704287</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19.20061258790963</v>
+        <v>19.20061258790997</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.983593053713037</v>
+        <v>8.983593053713093</v>
       </c>
       <c r="C14">
-        <v>7.134563647410118</v>
+        <v>7.134563647409777</v>
       </c>
       <c r="D14">
-        <v>0.4386879702556286</v>
+        <v>0.438687970255188</v>
       </c>
       <c r="E14">
-        <v>3.327395197501517</v>
+        <v>3.327395197501545</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18.67383168027158</v>
+        <v>18.67383168027175</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.802393635136582</v>
+        <v>8.802393635136525</v>
       </c>
       <c r="C15">
-        <v>7.001051682550724</v>
+        <v>7.001051682550269</v>
       </c>
       <c r="D15">
-        <v>0.4308740965234676</v>
+        <v>0.4308740965227429</v>
       </c>
       <c r="E15">
         <v>3.258056695366733</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18.36013522942204</v>
+        <v>18.36013522942278</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.844946254100705</v>
+        <v>7.844946254100591</v>
       </c>
       <c r="C16">
-        <v>6.290147722907818</v>
+        <v>6.290147722908614</v>
       </c>
       <c r="D16">
-        <v>0.3889781732027728</v>
+        <v>0.3889781732026307</v>
       </c>
       <c r="E16">
-        <v>2.894962895303351</v>
+        <v>2.894962895303394</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16.67392239003556</v>
+        <v>16.6739223900359</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.313940705752827</v>
+        <v>7.313940705752486</v>
       </c>
       <c r="C17">
-        <v>5.891819769672338</v>
+        <v>5.891819769671883</v>
       </c>
       <c r="D17">
-        <v>0.3653034016132466</v>
+        <v>0.3653034016129055</v>
       </c>
       <c r="E17">
-        <v>2.695658332842086</v>
+        <v>2.695658332842129</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15.71787158166745</v>
+        <v>15.71787158166728</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.024528503627664</v>
+        <v>7.024528503627437</v>
       </c>
       <c r="C18">
-        <v>5.673461532003103</v>
+        <v>5.673461532002989</v>
       </c>
       <c r="D18">
-        <v>0.3522682893793814</v>
+        <v>0.3522682893790972</v>
       </c>
       <c r="E18">
-        <v>2.587560048162018</v>
+        <v>2.587560048161933</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15.190483786778</v>
+        <v>15.19048378677795</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.928946606535476</v>
+        <v>6.928946606535362</v>
       </c>
       <c r="C19">
-        <v>5.601147500127468</v>
+        <v>5.601147500126785</v>
       </c>
       <c r="D19">
-        <v>0.3479428553221595</v>
+        <v>0.3479428553224011</v>
       </c>
       <c r="E19">
         <v>2.551934067138433</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15.01532385083084</v>
+        <v>15.01532385083104</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.368724014635575</v>
+        <v>7.368724014635404</v>
       </c>
       <c r="C20">
-        <v>5.933052279203821</v>
+        <v>5.933052279203594</v>
       </c>
       <c r="D20">
-        <v>0.3677603760494179</v>
+        <v>0.3677603760497732</v>
       </c>
       <c r="E20">
-        <v>2.716160467273738</v>
+        <v>2.716160467273852</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.072207045274922</v>
+        <v>9.072207045274865</v>
       </c>
       <c r="C21">
-        <v>7.199739783747305</v>
+        <v>7.199739783747759</v>
       </c>
       <c r="D21">
-        <v>0.4424958882692778</v>
+        <v>0.4424958882692636</v>
       </c>
       <c r="E21">
-        <v>3.361384137757284</v>
+        <v>3.361384137757341</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18.82661475763467</v>
+        <v>18.82661475763484</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>10.46944277848672</v>
       </c>
       <c r="C22">
-        <v>8.217552395518169</v>
+        <v>8.21755239551851</v>
       </c>
       <c r="D22">
-        <v>0.501364736261948</v>
+        <v>0.5013647362616069</v>
       </c>
       <c r="E22">
-        <v>3.905206465241633</v>
+        <v>3.90520646524169</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21.18114936048568</v>
+        <v>21.18114936048556</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.686234865576296</v>
+        <v>9.68623486557658</v>
       </c>
       <c r="C23">
-        <v>7.649285243361419</v>
+        <v>7.649285243362215</v>
       </c>
       <c r="D23">
-        <v>0.468639240029205</v>
+        <v>0.4686392400285371</v>
       </c>
       <c r="E23">
-        <v>3.598442171974597</v>
+        <v>3.598442171974568</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19.87396645558539</v>
+        <v>19.87396645558533</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.343908115362524</v>
+        <v>7.343908115362922</v>
       </c>
       <c r="C24">
-        <v>5.91437861365614</v>
+        <v>5.914378613656027</v>
       </c>
       <c r="D24">
-        <v>0.3666478213264384</v>
+        <v>0.3666478213267368</v>
       </c>
       <c r="E24">
-        <v>2.706871723655439</v>
+        <v>2.706871723655411</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15.77222515007139</v>
+        <v>15.77222515007156</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.435714897299363</v>
+        <v>5.43571489729959</v>
       </c>
       <c r="C25">
-        <v>4.458094132929261</v>
+        <v>4.458094132928693</v>
       </c>
       <c r="D25">
-        <v>0.2790441874763729</v>
+        <v>0.279044187475904</v>
       </c>
       <c r="E25">
-        <v>1.999307023459181</v>
+        <v>1.999307023459309</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12.21447608666776</v>
+        <v>12.21447608666787</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.270469398493788</v>
+        <v>4.201071404884374</v>
       </c>
       <c r="C2">
-        <v>3.547475726561117</v>
+        <v>3.503922517254694</v>
       </c>
       <c r="D2">
-        <v>0.2235195212144987</v>
+        <v>0.2218436447371488</v>
       </c>
       <c r="E2">
-        <v>1.57157549922394</v>
+        <v>1.558277922352588</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007194553733506834</v>
       </c>
       <c r="H2">
-        <v>9.941772438106852</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.921336487669066</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -444,34 +447,37 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.563994944012677</v>
+        <v>3.507722766457221</v>
       </c>
       <c r="C3">
-        <v>2.986550416885848</v>
+        <v>2.951944565811971</v>
       </c>
       <c r="D3">
-        <v>0.189075373877813</v>
+        <v>0.1877231075027481</v>
       </c>
       <c r="E3">
-        <v>1.312864353270456</v>
+        <v>1.302326871588974</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007397010499976542</v>
       </c>
       <c r="H3">
-        <v>8.524150034710061</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.516769529841383</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -482,34 +488,37 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.158054219069072</v>
+        <v>3.109293392002257</v>
       </c>
       <c r="C4">
-        <v>2.660925834255124</v>
+        <v>2.631421874439638</v>
       </c>
       <c r="D4">
-        <v>0.1690053749666305</v>
+        <v>0.1678309104085685</v>
       </c>
       <c r="E4">
-        <v>1.164182817158391</v>
+        <v>1.155110764650885</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007520113731939273</v>
       </c>
       <c r="H4">
-        <v>7.695004150192943</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7.694798756988234</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -520,34 +529,37 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.998165830899097</v>
+        <v>2.952371003143298</v>
       </c>
       <c r="C5">
-        <v>2.531960420357734</v>
+        <v>2.504466283606462</v>
       </c>
       <c r="D5">
-        <v>0.1610426509853085</v>
+        <v>0.1599367582706748</v>
       </c>
       <c r="E5">
-        <v>1.105583955532254</v>
+        <v>1.097067277528978</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007570201230929284</v>
       </c>
       <c r="H5">
-        <v>7.365336597141152</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>7.367898730133419</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -558,34 +570,37 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.971914324077318</v>
+        <v>2.926607272432307</v>
       </c>
       <c r="C6">
-        <v>2.510746185335847</v>
+        <v>2.48358228696469</v>
       </c>
       <c r="D6">
-        <v>0.1597321000262468</v>
+        <v>0.1586373912737429</v>
       </c>
       <c r="E6">
-        <v>1.095959848903917</v>
+        <v>1.087533231675962</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007578519156413892</v>
       </c>
       <c r="H6">
-        <v>7.311037278236739</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.314050810189684</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -596,34 +611,37 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.155877183594953</v>
+        <v>3.107156694402704</v>
       </c>
       <c r="C7">
-        <v>2.659172612058967</v>
+        <v>2.62969600556039</v>
       </c>
       <c r="D7">
-        <v>0.1688971767210461</v>
+        <v>0.1677236511679752</v>
       </c>
       <c r="E7">
-        <v>1.163385123578081</v>
+        <v>1.154320713179374</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007520789286461493</v>
       </c>
       <c r="H7">
-        <v>7.690527389948244</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>7.690359893219238</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -634,34 +652,37 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.020097811841481</v>
+        <v>3.955369977152316</v>
       </c>
       <c r="C8">
-        <v>3.349490635248856</v>
+        <v>3.309124712342225</v>
       </c>
       <c r="D8">
-        <v>0.2113816511019166</v>
+        <v>0.2098226729802093</v>
       </c>
       <c r="E8">
-        <v>1.479871044256527</v>
+        <v>1.467584238108387</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007264764531245239</v>
       </c>
       <c r="H8">
-        <v>9.442939478006537</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.4272189239353</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -672,34 +693,37 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.029052506278845</v>
+        <v>5.925447155281688</v>
       </c>
       <c r="C9">
-        <v>4.915354001537992</v>
+        <v>4.848389411088192</v>
       </c>
       <c r="D9">
-        <v>0.3067204757373361</v>
+        <v>0.3041393797774674</v>
       </c>
       <c r="E9">
-        <v>2.218109836796998</v>
+        <v>2.196471430309842</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006738941187684682</v>
       </c>
       <c r="H9">
-        <v>13.34203215152857</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13.28512396114172</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -710,34 +734,37 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.908006419558603</v>
+        <v>7.76245678528494</v>
       </c>
       <c r="C10">
-        <v>6.337256253204146</v>
+        <v>6.241585856380652</v>
       </c>
       <c r="D10">
-        <v>0.3917689132894822</v>
+        <v>0.3879926913903802</v>
       </c>
       <c r="E10">
-        <v>2.918721961154318</v>
+        <v>2.884746551970991</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.00063064840938587</v>
       </c>
       <c r="H10">
-        <v>16.78646720806955</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.6815798836646</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -748,34 +775,37 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.948571998151465</v>
+        <v>8.775539262973609</v>
       </c>
       <c r="C11">
-        <v>7.108784359035781</v>
+        <v>6.994363916718157</v>
       </c>
       <c r="D11">
-        <v>0.4371806202839963</v>
+        <v>0.4325889145833344</v>
       </c>
       <c r="E11">
-        <v>3.313977034048492</v>
+        <v>3.270789733289376</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006085317582809134</v>
       </c>
       <c r="H11">
-        <v>18.61333680611108</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>18.47584103808862</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -786,34 +816,37 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.387006640469224</v>
+        <v>9.201068693314255</v>
       </c>
       <c r="C12">
-        <v>7.430662821364308</v>
+        <v>7.307457576152729</v>
       </c>
       <c r="D12">
-        <v>0.4559521411611911</v>
+        <v>0.4509714957334552</v>
       </c>
       <c r="E12">
-        <v>3.482571923558737</v>
+        <v>3.434783392168143</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005995512043623084</v>
       </c>
       <c r="H12">
-        <v>19.36604212744345</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>19.21302869919106</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -824,34 +857,37 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.290141903797632</v>
+        <v>9.107134489934708</v>
       </c>
       <c r="C13">
-        <v>7.359708692018899</v>
+        <v>7.23849720951921</v>
       </c>
       <c r="D13">
-        <v>0.4518234849962823</v>
+        <v>0.4469314418301025</v>
       </c>
       <c r="E13">
-        <v>3.445206711704287</v>
+        <v>3.398477632943198</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006015188523351097</v>
       </c>
       <c r="H13">
-        <v>19.20061258790997</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>19.05113230318261</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -862,34 +898,37 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.983593053713093</v>
+        <v>8.809562129908784</v>
       </c>
       <c r="C14">
-        <v>7.134563647409777</v>
+        <v>7.01946327050814</v>
       </c>
       <c r="D14">
-        <v>0.438687970255188</v>
+        <v>0.4340663002878387</v>
       </c>
       <c r="E14">
-        <v>3.327395197501545</v>
+        <v>3.28385802157014</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006078073210234358</v>
       </c>
       <c r="H14">
-        <v>18.67383168027175</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>18.53513965642082</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -900,34 +939,37 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.802393635136525</v>
+        <v>8.633470334675565</v>
       </c>
       <c r="C15">
-        <v>7.001051682550269</v>
+        <v>6.889431256028388</v>
       </c>
       <c r="D15">
-        <v>0.4308740965227429</v>
+        <v>0.4264055223607812</v>
       </c>
       <c r="E15">
-        <v>3.258056695366733</v>
+        <v>3.216298882334939</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006115691215144131</v>
       </c>
       <c r="H15">
-        <v>18.36013522942278</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>18.22755658673583</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -938,34 +980,37 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.844946254100591</v>
+        <v>7.700943746326288</v>
       </c>
       <c r="C16">
-        <v>6.290147722908614</v>
+        <v>6.195534467145762</v>
       </c>
       <c r="D16">
-        <v>0.3889781732026307</v>
+        <v>0.3852472306406582</v>
       </c>
       <c r="E16">
-        <v>2.894962895303394</v>
+        <v>2.86148084069643</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006320271759181559</v>
       </c>
       <c r="H16">
-        <v>16.6739223900359</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>16.57084868639538</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -976,34 +1021,37 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.313940705752486</v>
+        <v>7.182523556019305</v>
       </c>
       <c r="C17">
-        <v>5.891819769671883</v>
+        <v>5.805811788649521</v>
       </c>
       <c r="D17">
-        <v>0.3653034016129055</v>
+        <v>0.3619378007651761</v>
       </c>
       <c r="E17">
-        <v>2.695658332842129</v>
+        <v>2.666084061966103</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006438242051046287</v>
       </c>
       <c r="H17">
-        <v>15.71787158166728</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>15.62944338572134</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,34 +1062,37 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.024528503627437</v>
+        <v>6.899670135697875</v>
       </c>
       <c r="C18">
-        <v>5.673461532002989</v>
+        <v>5.591941803112263</v>
       </c>
       <c r="D18">
-        <v>0.3522682893790972</v>
+        <v>0.3490907682048316</v>
       </c>
       <c r="E18">
-        <v>2.587560048161933</v>
+        <v>2.559945928085597</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006504007523997464</v>
       </c>
       <c r="H18">
-        <v>15.19048378677795</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>15.10960355659782</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1052,34 +1103,37 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.928946606535362</v>
+        <v>6.806212594889757</v>
       </c>
       <c r="C19">
-        <v>5.601147500126785</v>
+        <v>5.521081952769009</v>
       </c>
       <c r="D19">
-        <v>0.3479428553224011</v>
+        <v>0.3448258789683081</v>
       </c>
       <c r="E19">
-        <v>2.551934067138433</v>
+        <v>2.524943332946734</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006525965742245602</v>
       </c>
       <c r="H19">
-        <v>15.01532385083104</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14.93687459203014</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1090,34 +1144,37 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.368724014635404</v>
+        <v>7.23604280055622</v>
       </c>
       <c r="C20">
-        <v>5.933052279203594</v>
+        <v>5.846179552209264</v>
       </c>
       <c r="D20">
-        <v>0.3677603760497732</v>
+        <v>0.3643583353428994</v>
       </c>
       <c r="E20">
-        <v>2.716160467273852</v>
+        <v>2.686202324771131</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006425912571990846</v>
       </c>
       <c r="H20">
-        <v>15.81719895610399</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>15.7273090224881</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1128,34 +1185,37 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.072207045274865</v>
+        <v>8.895626041370406</v>
       </c>
       <c r="C21">
-        <v>7.199739783747759</v>
+        <v>7.082902716722856</v>
       </c>
       <c r="D21">
-        <v>0.4424958882692636</v>
+        <v>0.4377975734970789</v>
       </c>
       <c r="E21">
-        <v>3.361384137757341</v>
+        <v>3.316948484041632</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006059798286637452</v>
       </c>
       <c r="H21">
-        <v>18.82661475763484</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>18.6848634512524</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1166,34 +1226,37 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.46944277848672</v>
+        <v>10.2470400329525</v>
       </c>
       <c r="C22">
-        <v>8.21755239551851</v>
+        <v>8.069590142883953</v>
       </c>
       <c r="D22">
-        <v>0.5013647362616069</v>
+        <v>0.4952706034800656</v>
       </c>
       <c r="E22">
-        <v>3.90520646524169</v>
+        <v>3.843572220020292</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005781727717318411</v>
       </c>
       <c r="H22">
-        <v>21.18114936048556</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>20.98381745476752</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1204,34 +1267,37 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.68623486557658</v>
+        <v>9.49093299346714</v>
       </c>
       <c r="C23">
-        <v>7.649285243362215</v>
+        <v>7.519713602654065</v>
       </c>
       <c r="D23">
-        <v>0.4686392400285371</v>
+        <v>0.4633744872749475</v>
       </c>
       <c r="E23">
-        <v>3.598442171974568</v>
+        <v>3.547212874972828</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005935305603328445</v>
       </c>
       <c r="H23">
-        <v>19.87396645558533</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>19.70963086744064</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1242,34 +1308,37 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.343908115362922</v>
+        <v>7.211800423534726</v>
       </c>
       <c r="C24">
-        <v>5.914378613656027</v>
+        <v>5.827898221698888</v>
       </c>
       <c r="D24">
-        <v>0.3666478213267368</v>
+        <v>0.3632623212808852</v>
       </c>
       <c r="E24">
-        <v>2.706871723655411</v>
+        <v>2.677087990708358</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006431492984103335</v>
       </c>
       <c r="H24">
-        <v>15.77222515007156</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>15.68299869708062</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1280,34 +1349,37 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.43571489729959</v>
+        <v>5.344017482428683</v>
       </c>
       <c r="C25">
-        <v>4.458094132928693</v>
+        <v>4.399286511687649</v>
       </c>
       <c r="D25">
-        <v>0.279044187475904</v>
+        <v>0.276786947932294</v>
       </c>
       <c r="E25">
-        <v>1.999307023459309</v>
+        <v>1.980755774404997</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006886185550624835</v>
       </c>
       <c r="H25">
-        <v>12.21447608666787</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12.17060591875818</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,34 +409,40 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.201071404884374</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.503922517254694</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2218436447371488</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.558277922352588</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007194553733506834</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.921336487669066</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,34 +456,40 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.507722766457221</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.951944565811971</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1877231075027481</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.302326871588974</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007397010499976542</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.516769529841383</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,34 +503,40 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.109293392002257</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.631421874439638</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1678309104085685</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.155110764650885</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007520113731939273</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.694798756988234</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -532,34 +550,40 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.952371003143298</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.504466283606462</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1599367582706748</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.097067277528978</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007570201230929284</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.367898730133419</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -573,34 +597,40 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.926607272432307</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.48358228696469</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1586373912737429</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.087533231675962</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007578519156413892</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.314050810189684</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -614,34 +644,40 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.107156694402704</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.62969600556039</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1677236511679752</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.154320713179374</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007520789286461493</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.690359893219238</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -655,34 +691,40 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.955369977152316</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3.309124712342225</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2098226729802093</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1.467584238108387</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007264764531245239</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.4272189239353</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -696,34 +738,40 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.925447155281688</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4.848389411088192</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3041393797774674</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2.196471430309842</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0006738941187684682</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.28512396114172</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -737,34 +785,40 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.76245678528494</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>6.241585856380652</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3879926913903802</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2.884746551970991</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.00063064840938587</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.6815798836646</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -778,34 +832,40 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.775539262973609</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>6.994363916718157</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4325889145833344</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3.270789733289376</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006085317582809134</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.47584103808862</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -819,34 +879,40 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.201068693314255</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>7.307457576152729</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4509714957334552</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>3.434783392168143</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0005995512043623084</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.21302869919106</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -860,34 +926,40 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.107134489934708</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>7.23849720951921</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4469314418301025</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3.398477632943198</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006015188523351097</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.05113230318261</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -901,34 +973,40 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.809562129908784</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>7.01946327050814</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4340663002878387</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>3.28385802157014</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006078073210234358</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.53513965642082</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -942,34 +1020,40 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.633470334675565</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>6.889431256028388</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4264055223607812</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>3.216298882334939</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006115691215144131</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.22755658673583</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -983,34 +1067,40 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.700943746326288</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>6.195534467145762</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3852472306406582</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2.86148084069643</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006320271759181559</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.57084868639538</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1024,34 +1114,40 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.182523556019305</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>5.805811788649521</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3619378007651761</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2.666084061966103</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006438242051046287</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.62944338572134</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1065,34 +1161,40 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.899670135697875</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>5.591941803112263</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3490907682048316</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>2.559945928085597</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0006504007523997464</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.10960355659782</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1106,34 +1208,40 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.806212594889757</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>5.521081952769009</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3448258789683081</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2.524943332946734</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0006525965742245602</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.93687459203014</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1147,34 +1255,40 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.23604280055622</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>5.846179552209264</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3643583353428994</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2.686202324771131</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006425912571990846</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.7273090224881</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1188,34 +1302,40 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.895626041370406</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>7.082902716722856</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4377975734970789</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>3.316948484041632</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006059798286637452</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.6848634512524</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1229,34 +1349,40 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.2470400329525</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>8.069590142883953</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4952706034800656</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>3.843572220020292</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0005781727717318411</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.98381745476752</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1270,34 +1396,40 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.49093299346714</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>7.519713602654065</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4633744872749475</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>3.547212874972828</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0005935305603328445</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.70963086744064</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1311,34 +1443,40 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.211800423534726</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>5.827898221698888</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3632623212808852</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>2.677087990708358</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006431492984103335</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.68299869708062</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1352,34 +1490,40 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.344017482428683</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>4.399286511687649</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.276786947932294</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1.980755774404997</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0006886185550624835</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.17060591875818</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.651422714369858</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.001217910262397</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2075012033497217</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.445299168461517</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.3015485252269485</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.198105549653846</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.006454489516699</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.178134092334687</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.8810161852914575</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1796335333078076</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.239519549890716</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.2673298760036431</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.190598335695924</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9176887630379724</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.888210424529404</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.8073254553566187</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1627228948268424</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.11573614387143</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.2478670301849917</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1868826976083326</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8683265395655724</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.770175969506795</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.7773112258952608</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1558754643966722</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.065839174109982</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.2402894969690195</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1855774091361795</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.849395224325832</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.750581568429823</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.7723279476796847</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1547409152299366</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.057584043847484</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.2390516292935132</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1853728379637118</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.84632018962904</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.886618191914522</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.8069206274990108</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1626303790251882</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.115061131078647</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.2477634496728101</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.186864268552192</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8680665682424547</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3.488055305594401</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.959740413645477</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.19784678367661</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.373750917521789</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.2894066334690706</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1953216271458302</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9747135329614594</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4.675802849234003</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.260994962818017</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2688170060620791</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.906433961369743</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.3850857417967859</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2197780305325665</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.229951798734419</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5.558145486959347</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.484350751009401</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3226161484946317</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.321255769723237</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.4665875231134748</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2437375144292275</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.453722983755313</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5.962822453947524</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.586671563726782</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3475727277881475</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.517162801795891</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.50676754482717</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2562381663400686</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.565440786923858</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6.116645438876333</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.625545884918381</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3571038813796719</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.592589458254636</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5224923845412235</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2612304810727011</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.609365992661822</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6.083489251894548</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.617167499980155</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3550474000703474</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.576286188997827</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.5190820129168259</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2601433097229062</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.599830541806227</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>5.97546527189354</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.589867066511204</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3483551772640823</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.52334204326111</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.5080506371860594</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.256643530659872</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.569020884296179</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>5.909376454574328</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.573162173427534</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.344266850467676</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.491080441284581</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.5013619560851481</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2545343870355623</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.55036617849828</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>5.531774053614015</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.477680290893545</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3209958273003934</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.308614580169007</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.4640293665407142</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2429551385752688</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.446637655789516</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5.301043376740893</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.419305169012432</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3068511328064858</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.198659218911402</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.4419648502786231</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2362809473456764</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.38567578354909</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>5.168636253973887</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.385795006853698</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2987602155707378</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.136079820273366</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.4295619525944687</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2325909836256699</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.35153336081396</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>5.123854467146259</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.374459610269469</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2960281315403677</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.114999782941737</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.4254102056823399</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2313663799769046</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.340126012691627</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5.32557295014351</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.425512333908841</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.308352152272434</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.210294040148526</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.4442834114215799</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2369758256003109</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.392068605240581</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>6.007177863851496</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.597882188687151</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3503185619837694</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.538857555700332</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.5112764513231269</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.25766424056971</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.578024807370667</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>6.456088978602224</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.711293627966654</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3782221141903648</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2.76094435795072</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.558065061121809</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2727081767227162</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.709107612914465</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>6.21614306745289</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.650685477608647</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3632818987159396</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.641663656460537</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.5327953287128651</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.264529364116612</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.638202592645257</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>5.314482380980621</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.422705919283658</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3076734143213145</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.205031973422706</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.4432343153470271</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2366612150016323</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.389175604846002</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4.353144307598711</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.179225937449303</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.249364901735234</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.758847579168105</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.3574424078441183</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2122031448944028</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.155175006820429</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.651422714369858</v>
+        <v>1.201376172747416</v>
       </c>
       <c r="C2">
-        <v>1.001217910262397</v>
+        <v>0.3355094820660725</v>
       </c>
       <c r="D2">
-        <v>0.2075012033497217</v>
+        <v>0.07970775826393606</v>
       </c>
       <c r="E2">
-        <v>1.445299168461517</v>
+        <v>0.4254940551921464</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3015485252269485</v>
+        <v>0.2506091721017754</v>
       </c>
       <c r="H2">
-        <v>0.198105549653846</v>
+        <v>0.4034740199273301</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.006454489516699</v>
+        <v>1.225594442798524</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.178134092334687</v>
+        <v>1.051949474620756</v>
       </c>
       <c r="C3">
-        <v>0.8810161852914575</v>
+        <v>0.2962493627776723</v>
       </c>
       <c r="D3">
-        <v>0.1796335333078076</v>
+        <v>0.07213751377541655</v>
       </c>
       <c r="E3">
-        <v>1.239519549890716</v>
+        <v>0.3710793600973403</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2673298760036431</v>
+        <v>0.2479892266328392</v>
       </c>
       <c r="H3">
-        <v>0.190598335695924</v>
+        <v>0.4076013966952061</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9176887630379724</v>
+        <v>1.228330647571568</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.888210424529404</v>
+        <v>0.9599315408196958</v>
       </c>
       <c r="C4">
-        <v>0.8073254553566187</v>
+        <v>0.2720377919384589</v>
       </c>
       <c r="D4">
-        <v>0.1627228948268424</v>
+        <v>0.06752476887481862</v>
       </c>
       <c r="E4">
-        <v>1.11573614387143</v>
+        <v>0.3377655909772699</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2478670301849917</v>
+        <v>0.2467861169645147</v>
       </c>
       <c r="H4">
-        <v>0.1868826976083326</v>
+        <v>0.4104988740165396</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8683265395655724</v>
+        <v>1.231618975261696</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.770175969506795</v>
+        <v>0.9223675857677449</v>
       </c>
       <c r="C5">
-        <v>0.7773112258952608</v>
+        <v>0.2621453829302141</v>
       </c>
       <c r="D5">
-        <v>0.1558754643966722</v>
+        <v>0.06565390212512057</v>
       </c>
       <c r="E5">
-        <v>1.065839174109982</v>
+        <v>0.3242123819504599</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2402894969690195</v>
+        <v>0.2463969163119586</v>
       </c>
       <c r="H5">
-        <v>0.1855774091361795</v>
+        <v>0.4117706509739065</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.849395224325832</v>
+        <v>1.233360841055358</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.750581568429823</v>
+        <v>0.9161261939611904</v>
       </c>
       <c r="C6">
-        <v>0.7723279476796847</v>
+        <v>0.2605012030996363</v>
       </c>
       <c r="D6">
-        <v>0.1547409152299366</v>
+        <v>0.06534378031780363</v>
       </c>
       <c r="E6">
-        <v>1.057584043847484</v>
+        <v>0.3219631783760804</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2390516292935132</v>
+        <v>0.2463383681929656</v>
       </c>
       <c r="H6">
-        <v>0.1853728379637118</v>
+        <v>0.4119873175448348</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.84632018962904</v>
+        <v>1.233674271760677</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.886618191914522</v>
+        <v>0.9594252045629332</v>
       </c>
       <c r="C7">
-        <v>0.8069206274990108</v>
+        <v>0.2719044839318485</v>
       </c>
       <c r="D7">
-        <v>0.1626303790251882</v>
+        <v>0.06749950187440845</v>
       </c>
       <c r="E7">
-        <v>1.115061131078647</v>
+        <v>0.3375827194749235</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2477634496728101</v>
+        <v>0.2467804600110384</v>
       </c>
       <c r="H7">
-        <v>0.186864268552192</v>
+        <v>0.410515657478264</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8680665682424547</v>
+        <v>1.231640843033688</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.488055305594401</v>
+        <v>1.149910789012324</v>
       </c>
       <c r="C8">
-        <v>0.959740413645477</v>
+        <v>0.32199486484663</v>
       </c>
       <c r="D8">
-        <v>0.19784678367661</v>
+        <v>0.07709015998119639</v>
       </c>
       <c r="E8">
-        <v>1.373750917521789</v>
+        <v>0.4067105053716489</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2894066334690706</v>
+        <v>0.2496210993426757</v>
       </c>
       <c r="H8">
-        <v>0.1953216271458302</v>
+        <v>0.4048215590885036</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9747135329614594</v>
+        <v>1.22620253512099</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.675802849234003</v>
+        <v>1.521254469736334</v>
       </c>
       <c r="C9">
-        <v>1.260994962818017</v>
+        <v>0.4193627679769065</v>
       </c>
       <c r="D9">
-        <v>0.2688170060620791</v>
+        <v>0.09618131359884785</v>
       </c>
       <c r="E9">
-        <v>1.906433961369743</v>
+        <v>0.5431362864581928</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3850857417967859</v>
+        <v>0.2584507481109313</v>
       </c>
       <c r="H9">
-        <v>0.2197780305325665</v>
+        <v>0.3965518986282035</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.229951798734419</v>
+        <v>1.228416799267791</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.558145486959347</v>
+        <v>1.79268744326356</v>
       </c>
       <c r="C10">
-        <v>1.484350751009401</v>
+        <v>0.4903550495919831</v>
       </c>
       <c r="D10">
-        <v>0.3226161484946317</v>
+        <v>0.1103861466626199</v>
       </c>
       <c r="E10">
-        <v>2.321255769723237</v>
+        <v>0.6440390492278993</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4665875231134748</v>
+        <v>0.2669829008021765</v>
       </c>
       <c r="H10">
-        <v>0.2437375144292275</v>
+        <v>0.3922618740131583</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.453722983755313</v>
+        <v>1.238060374397492</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.962822453947524</v>
+        <v>1.915857821068471</v>
       </c>
       <c r="C11">
-        <v>1.586671563726782</v>
+        <v>0.5225295212978267</v>
       </c>
       <c r="D11">
-        <v>0.3475727277881475</v>
+        <v>0.1168883419067157</v>
       </c>
       <c r="E11">
-        <v>2.517162801795891</v>
+        <v>0.6901195367793775</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.50676754482717</v>
+        <v>0.2713210248802653</v>
       </c>
       <c r="H11">
-        <v>0.2562381663400686</v>
+        <v>0.3907023085443342</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.565440786923858</v>
+        <v>1.244224079252234</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.116645438876333</v>
+        <v>1.962453946475989</v>
       </c>
       <c r="C12">
-        <v>1.625545884918381</v>
+        <v>0.5346954147681799</v>
       </c>
       <c r="D12">
-        <v>0.3571038813796719</v>
+        <v>0.1193564267227885</v>
       </c>
       <c r="E12">
-        <v>2.592589458254636</v>
+        <v>0.7075972006134066</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5224923845412235</v>
+        <v>0.2730304477858141</v>
       </c>
       <c r="H12">
-        <v>0.2612304810727011</v>
+        <v>0.390168461369953</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.609365992661822</v>
+        <v>1.246816480869057</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.083489251894548</v>
+        <v>1.952420704130418</v>
       </c>
       <c r="C13">
-        <v>1.617167499980155</v>
+        <v>0.532076076386204</v>
       </c>
       <c r="D13">
-        <v>0.3550474000703474</v>
+        <v>0.118824619868235</v>
       </c>
       <c r="E13">
-        <v>2.576286188997827</v>
+        <v>0.7038317931467333</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5190820129168259</v>
+        <v>0.272659312187443</v>
       </c>
       <c r="H13">
-        <v>0.2601433097229062</v>
+        <v>0.39028090625483</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.599830541806227</v>
+        <v>1.246246625749222</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.97546527189354</v>
+        <v>1.919692241149733</v>
       </c>
       <c r="C14">
-        <v>1.589867066511204</v>
+        <v>0.5235307783456733</v>
       </c>
       <c r="D14">
-        <v>0.3483551772640823</v>
+        <v>0.1170912753469509</v>
       </c>
       <c r="E14">
-        <v>2.52334204326111</v>
+        <v>0.6915568611879905</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5080506371860594</v>
+        <v>0.2714603183481614</v>
       </c>
       <c r="H14">
-        <v>0.256643530659872</v>
+        <v>0.3906572496726568</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.569020884296179</v>
+        <v>1.244432163879708</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.909376454574328</v>
+        <v>1.899639090900166</v>
       </c>
       <c r="C15">
-        <v>1.573162173427534</v>
+        <v>0.5182941907727923</v>
       </c>
       <c r="D15">
-        <v>0.344266850467676</v>
+        <v>0.1160303142020354</v>
       </c>
       <c r="E15">
-        <v>2.491080441284581</v>
+        <v>0.6840418208766152</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5013619560851481</v>
+        <v>0.2707346114925002</v>
       </c>
       <c r="H15">
-        <v>0.2545343870355623</v>
+        <v>0.3908951690158915</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.55036617849828</v>
+        <v>1.243354481520385</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.531774053614015</v>
+        <v>1.784631656607644</v>
       </c>
       <c r="C16">
-        <v>1.477680290893545</v>
+        <v>0.4882499016848669</v>
       </c>
       <c r="D16">
-        <v>0.3209958273003934</v>
+        <v>0.1099620284264518</v>
       </c>
       <c r="E16">
-        <v>2.308614580169007</v>
+        <v>0.6410313765560716</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4640293665407142</v>
+        <v>0.2667086701349035</v>
       </c>
       <c r="H16">
-        <v>0.2429551385752688</v>
+        <v>0.3923717137446943</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.446637655789516</v>
+        <v>1.237693558010392</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.301043376740893</v>
+        <v>1.713998663405562</v>
       </c>
       <c r="C17">
-        <v>1.419305169012432</v>
+        <v>0.4697874784318969</v>
       </c>
       <c r="D17">
-        <v>0.3068511328064858</v>
+        <v>0.1062496955009777</v>
       </c>
       <c r="E17">
-        <v>2.198659218911402</v>
+        <v>0.6146933444763505</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4419648502786231</v>
+        <v>0.2643565820233107</v>
       </c>
       <c r="H17">
-        <v>0.2362809473456764</v>
+        <v>0.3933781786772386</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.38567578354909</v>
+        <v>1.234677862691115</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.168636253973887</v>
+        <v>1.67334375429698</v>
       </c>
       <c r="C18">
-        <v>1.385795006853698</v>
+        <v>0.4591570944835439</v>
       </c>
       <c r="D18">
-        <v>0.2987602155707378</v>
+        <v>0.1041182546929491</v>
       </c>
       <c r="E18">
-        <v>2.136079820273366</v>
+        <v>0.5995611499510005</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4295619525944687</v>
+        <v>0.2630466610432904</v>
       </c>
       <c r="H18">
-        <v>0.2325909836256699</v>
+        <v>0.3939939449407461</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.35153336081396</v>
+        <v>1.233110384695692</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.123854467146259</v>
+        <v>1.659573831667672</v>
       </c>
       <c r="C19">
-        <v>1.374459610269469</v>
+        <v>0.4555559087128813</v>
       </c>
       <c r="D19">
-        <v>0.2960281315403677</v>
+        <v>0.1033972359356881</v>
       </c>
       <c r="E19">
-        <v>2.114999782941737</v>
+        <v>0.5944404583141818</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4254102056823399</v>
+        <v>0.2626104890502177</v>
       </c>
       <c r="H19">
-        <v>0.2313663799769046</v>
+        <v>0.3942087550858702</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.340126012691627</v>
+        <v>1.232608271613458</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.32557295014351</v>
+        <v>1.721520647798172</v>
       </c>
       <c r="C20">
-        <v>1.425512333908841</v>
+        <v>0.4717540072728639</v>
       </c>
       <c r="D20">
-        <v>0.308352152272434</v>
+        <v>0.1066444866088716</v>
       </c>
       <c r="E20">
-        <v>2.210294040148526</v>
+        <v>0.6174953240443273</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4442834114215799</v>
+        <v>0.2646025148136602</v>
       </c>
       <c r="H20">
-        <v>0.2369758256003109</v>
+        <v>0.3932672198373126</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.392068605240581</v>
+        <v>1.234981576968607</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.007177863851496</v>
+        <v>1.9293066422224</v>
       </c>
       <c r="C21">
-        <v>1.597882188687151</v>
+        <v>0.5260412294085768</v>
       </c>
       <c r="D21">
-        <v>0.3503185619837694</v>
+        <v>0.1176002416839594</v>
       </c>
       <c r="E21">
-        <v>2.538857555700332</v>
+        <v>0.6951615291457358</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5112764513231269</v>
+        <v>0.2718106746817313</v>
       </c>
       <c r="H21">
-        <v>0.25766424056971</v>
+        <v>0.3905451660811821</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.578024807370667</v>
+        <v>1.244958081366974</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.456088978602224</v>
+        <v>2.064838877434227</v>
       </c>
       <c r="C22">
-        <v>1.711293627966654</v>
+        <v>0.5614165811499561</v>
       </c>
       <c r="D22">
-        <v>0.3782221141903648</v>
+        <v>0.1247945480334067</v>
       </c>
       <c r="E22">
-        <v>2.76094435795072</v>
+        <v>0.7460850311777563</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.558065061121809</v>
+        <v>0.2769106813025104</v>
       </c>
       <c r="H22">
-        <v>0.2727081767227162</v>
+        <v>0.3890969592404616</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.709107612914465</v>
+        <v>1.252985431721385</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.21614306745289</v>
+        <v>1.992527887369988</v>
       </c>
       <c r="C23">
-        <v>1.650685477608647</v>
+        <v>0.5425458412244097</v>
       </c>
       <c r="D23">
-        <v>0.3632818987159396</v>
+        <v>0.1209516780324122</v>
       </c>
       <c r="E23">
-        <v>2.641663656460537</v>
+        <v>0.7188904469686861</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5327953287128651</v>
+        <v>0.2741527882477186</v>
       </c>
       <c r="H23">
-        <v>0.264529364116612</v>
+        <v>0.3898395061199409</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.638202592645257</v>
+        <v>1.248562241473479</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.314482380980621</v>
+        <v>1.718120105102969</v>
       </c>
       <c r="C24">
-        <v>1.422705919283658</v>
+        <v>0.4708649896635961</v>
       </c>
       <c r="D24">
-        <v>0.3076734143213145</v>
+        <v>0.1064659927423151</v>
       </c>
       <c r="E24">
-        <v>2.205031973422706</v>
+        <v>0.616228518459053</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4432343153470271</v>
+        <v>0.2644911968344275</v>
       </c>
       <c r="H24">
-        <v>0.2366612150016323</v>
+        <v>0.3933172686800361</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.389175604846002</v>
+        <v>1.23484374999731</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.353144307598711</v>
+        <v>1.421037123746487</v>
       </c>
       <c r="C25">
-        <v>1.179225937449303</v>
+        <v>0.3931162760424627</v>
       </c>
       <c r="D25">
-        <v>0.249364901735234</v>
+        <v>0.09098569162910053</v>
       </c>
       <c r="E25">
-        <v>1.758847579168105</v>
+        <v>0.5061220949675516</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3574424078441183</v>
+        <v>0.2557071737778358</v>
       </c>
       <c r="H25">
-        <v>0.2122031448944028</v>
+        <v>0.3984769193678233</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.155175006820429</v>
+        <v>1.226421932574908</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.201376172747416</v>
+        <v>3.651422714369801</v>
       </c>
       <c r="C2">
-        <v>0.3355094820660725</v>
+        <v>1.001217910262454</v>
       </c>
       <c r="D2">
-        <v>0.07970775826393606</v>
+        <v>0.207501203349608</v>
       </c>
       <c r="E2">
-        <v>0.4254940551921464</v>
+        <v>1.445299168461489</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2506091721017754</v>
+        <v>0.3015485252269343</v>
       </c>
       <c r="H2">
-        <v>0.4034740199273301</v>
+        <v>0.198105549653846</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.225594442798524</v>
+        <v>1.006454489516699</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.051949474620756</v>
+        <v>3.178134092334574</v>
       </c>
       <c r="C3">
-        <v>0.2962493627776723</v>
+        <v>0.8810161852912017</v>
       </c>
       <c r="D3">
-        <v>0.07213751377541655</v>
+        <v>0.1796335333077508</v>
       </c>
       <c r="E3">
-        <v>0.3710793600973403</v>
+        <v>1.239519549890744</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2479892266328392</v>
+        <v>0.2673298760036431</v>
       </c>
       <c r="H3">
-        <v>0.4076013966952061</v>
+        <v>0.1905983356959098</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.228330647571568</v>
+        <v>0.9176887630379156</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9599315408196958</v>
+        <v>2.888210424529518</v>
       </c>
       <c r="C4">
-        <v>0.2720377919384589</v>
+        <v>0.8073254553565334</v>
       </c>
       <c r="D4">
-        <v>0.06752476887481862</v>
+        <v>0.1627228948269135</v>
       </c>
       <c r="E4">
-        <v>0.3377655909772699</v>
+        <v>1.115736143871402</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2467861169645147</v>
+        <v>0.2478670301849846</v>
       </c>
       <c r="H4">
-        <v>0.4104988740165396</v>
+        <v>0.1868826976083326</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.231618975261696</v>
+        <v>0.8683265395655155</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9223675857677449</v>
+        <v>2.770175969506681</v>
       </c>
       <c r="C5">
-        <v>0.2621453829302141</v>
+        <v>0.777311225895204</v>
       </c>
       <c r="D5">
-        <v>0.06565390212512057</v>
+        <v>0.1558754643968285</v>
       </c>
       <c r="E5">
-        <v>0.3242123819504599</v>
+        <v>1.06583917411001</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2463969163119586</v>
+        <v>0.2402894969690195</v>
       </c>
       <c r="H5">
-        <v>0.4117706509739065</v>
+        <v>0.1855774091361866</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.233360841055358</v>
+        <v>0.8493952243258462</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9161261939611904</v>
+        <v>2.750581568429709</v>
       </c>
       <c r="C6">
-        <v>0.2605012030996363</v>
+        <v>0.7723279476796847</v>
       </c>
       <c r="D6">
-        <v>0.06534378031780363</v>
+        <v>0.1547409152300219</v>
       </c>
       <c r="E6">
-        <v>0.3219631783760804</v>
+        <v>1.05758404384747</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2463383681929656</v>
+        <v>0.2390516292935132</v>
       </c>
       <c r="H6">
-        <v>0.4119873175448348</v>
+        <v>0.1853728379637118</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.233674271760677</v>
+        <v>0.846320189629111</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9594252045629332</v>
+        <v>2.886618191914692</v>
       </c>
       <c r="C7">
-        <v>0.2719044839318485</v>
+        <v>0.8069206274993803</v>
       </c>
       <c r="D7">
-        <v>0.06749950187440845</v>
+        <v>0.162630379025174</v>
       </c>
       <c r="E7">
-        <v>0.3375827194749235</v>
+        <v>1.115061131078647</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2467804600110384</v>
+        <v>0.2477634496728172</v>
       </c>
       <c r="H7">
-        <v>0.410515657478264</v>
+        <v>0.1868642685523056</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.231640843033688</v>
+        <v>0.8680665682424262</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.149910789012324</v>
+        <v>3.488055305594401</v>
       </c>
       <c r="C8">
-        <v>0.32199486484663</v>
+        <v>0.9597404136457897</v>
       </c>
       <c r="D8">
-        <v>0.07709015998119639</v>
+        <v>0.1978467836765674</v>
       </c>
       <c r="E8">
-        <v>0.4067105053716489</v>
+        <v>1.373750917521775</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2496210993426757</v>
+        <v>0.2894066334690564</v>
       </c>
       <c r="H8">
-        <v>0.4048215590885036</v>
+        <v>0.1953216271458302</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.22620253512099</v>
+        <v>0.9747135329614309</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.521254469736334</v>
+        <v>4.675802849233889</v>
       </c>
       <c r="C9">
-        <v>0.4193627679769065</v>
+        <v>1.260994962818131</v>
       </c>
       <c r="D9">
-        <v>0.09618131359884785</v>
+        <v>0.2688170060620081</v>
       </c>
       <c r="E9">
-        <v>0.5431362864581928</v>
+        <v>1.906433961369743</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.2584507481109313</v>
+        <v>0.3850857417968712</v>
       </c>
       <c r="H9">
-        <v>0.3965518986282035</v>
+        <v>0.2197780305326944</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.228416799267791</v>
+        <v>1.229951798734447</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.79268744326356</v>
+        <v>5.558145486959631</v>
       </c>
       <c r="C10">
-        <v>0.4903550495919831</v>
+        <v>1.484350751009686</v>
       </c>
       <c r="D10">
-        <v>0.1103861466626199</v>
+        <v>0.3226161484945607</v>
       </c>
       <c r="E10">
-        <v>0.6440390492278993</v>
+        <v>2.321255769723237</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.2669829008021765</v>
+        <v>0.4665875231135317</v>
       </c>
       <c r="H10">
-        <v>0.3922618740131583</v>
+        <v>0.2437375144292133</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.238060374397492</v>
+        <v>1.453722983755313</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.915857821068471</v>
+        <v>5.962822453947808</v>
       </c>
       <c r="C11">
-        <v>0.5225295212978267</v>
+        <v>1.586671563726782</v>
       </c>
       <c r="D11">
-        <v>0.1168883419067157</v>
+        <v>0.3475727277881759</v>
       </c>
       <c r="E11">
-        <v>0.6901195367793775</v>
+        <v>2.517162801795934</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2713210248802653</v>
+        <v>0.5067675448271984</v>
       </c>
       <c r="H11">
-        <v>0.3907023085443342</v>
+        <v>0.256238166340168</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.244224079252234</v>
+        <v>1.565440786923801</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.962453946475989</v>
+        <v>6.116645438876333</v>
       </c>
       <c r="C12">
-        <v>0.5346954147681799</v>
+        <v>1.625545884918552</v>
       </c>
       <c r="D12">
-        <v>0.1193564267227885</v>
+        <v>0.3571038813797429</v>
       </c>
       <c r="E12">
-        <v>0.7075972006134066</v>
+        <v>2.592589458254608</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.2730304477858141</v>
+        <v>0.5224923845411666</v>
       </c>
       <c r="H12">
-        <v>0.390168461369953</v>
+        <v>0.2612304810727011</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.246816480869057</v>
+        <v>1.609365992661793</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.952420704130418</v>
+        <v>6.083489251894434</v>
       </c>
       <c r="C13">
-        <v>0.532076076386204</v>
+        <v>1.61716749998061</v>
       </c>
       <c r="D13">
-        <v>0.118824619868235</v>
+        <v>0.3550474000703616</v>
       </c>
       <c r="E13">
-        <v>0.7038317931467333</v>
+        <v>2.576286188997827</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.272659312187443</v>
+        <v>0.5190820129168117</v>
       </c>
       <c r="H13">
-        <v>0.39028090625483</v>
+        <v>0.2601433097229204</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.246246625749222</v>
+        <v>1.59983054180617</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.919692241149733</v>
+        <v>5.975465271893484</v>
       </c>
       <c r="C14">
-        <v>0.5235307783456733</v>
+        <v>1.58986706651109</v>
       </c>
       <c r="D14">
-        <v>0.1170912753469509</v>
+        <v>0.3483551772640112</v>
       </c>
       <c r="E14">
-        <v>0.6915568611879905</v>
+        <v>2.52334204326111</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2714603183481614</v>
+        <v>0.5080506371860878</v>
       </c>
       <c r="H14">
-        <v>0.3906572496726568</v>
+        <v>0.256643530659872</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.244432163879708</v>
+        <v>1.569020884296236</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.899639090900166</v>
+        <v>5.909376454574385</v>
       </c>
       <c r="C15">
-        <v>0.5182941907727923</v>
+        <v>1.573162173427306</v>
       </c>
       <c r="D15">
-        <v>0.1160303142020354</v>
+        <v>0.3442668504677329</v>
       </c>
       <c r="E15">
-        <v>0.6840418208766152</v>
+        <v>2.491080441284595</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2707346114925002</v>
+        <v>0.5013619560851481</v>
       </c>
       <c r="H15">
-        <v>0.3908951690158915</v>
+        <v>0.2545343870355765</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.243354481520385</v>
+        <v>1.550366178498251</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.784631656607644</v>
+        <v>5.531774053613901</v>
       </c>
       <c r="C16">
-        <v>0.4882499016848669</v>
+        <v>1.477680290893431</v>
       </c>
       <c r="D16">
-        <v>0.1099620284264518</v>
+        <v>0.3209958273004077</v>
       </c>
       <c r="E16">
-        <v>0.6410313765560716</v>
+        <v>2.308614580169007</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2667086701349035</v>
+        <v>0.4640293665407711</v>
       </c>
       <c r="H16">
-        <v>0.3923717137446943</v>
+        <v>0.2429551385752688</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.237693558010392</v>
+        <v>1.446637655789601</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.713998663405562</v>
+        <v>5.301043376740836</v>
       </c>
       <c r="C17">
-        <v>0.4697874784318969</v>
+        <v>1.419305169012659</v>
       </c>
       <c r="D17">
-        <v>0.1062496955009777</v>
+        <v>0.3068511328065426</v>
       </c>
       <c r="E17">
-        <v>0.6146933444763505</v>
+        <v>2.198659218911459</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.2643565820233107</v>
+        <v>0.4419648502786941</v>
       </c>
       <c r="H17">
-        <v>0.3933781786772386</v>
+        <v>0.2362809473456764</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.234677862691115</v>
+        <v>1.385675783549061</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.67334375429698</v>
+        <v>5.168636253974057</v>
       </c>
       <c r="C18">
-        <v>0.4591570944835439</v>
+        <v>1.385795006853925</v>
       </c>
       <c r="D18">
-        <v>0.1041182546929491</v>
+        <v>0.2987602155707236</v>
       </c>
       <c r="E18">
-        <v>0.5995611499510005</v>
+        <v>2.13607982027338</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.2630466610432904</v>
+        <v>0.4295619525945256</v>
       </c>
       <c r="H18">
-        <v>0.3939939449407461</v>
+        <v>0.2325909836255562</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.233110384695692</v>
+        <v>1.351533360814017</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.659573831667672</v>
+        <v>5.123854467146145</v>
       </c>
       <c r="C19">
-        <v>0.4555559087128813</v>
+        <v>1.374459610269525</v>
       </c>
       <c r="D19">
-        <v>0.1033972359356881</v>
+        <v>0.296028131540254</v>
       </c>
       <c r="E19">
-        <v>0.5944404583141818</v>
+        <v>2.114999782941737</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.2626104890502177</v>
+        <v>0.4254102056822688</v>
       </c>
       <c r="H19">
-        <v>0.3942087550858702</v>
+        <v>0.231366379977004</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.232608271613458</v>
+        <v>1.340126012691627</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.721520647798172</v>
+        <v>5.325572950143169</v>
       </c>
       <c r="C20">
-        <v>0.4717540072728639</v>
+        <v>1.425512333908614</v>
       </c>
       <c r="D20">
-        <v>0.1066444866088716</v>
+        <v>0.308352152272505</v>
       </c>
       <c r="E20">
-        <v>0.6174953240443273</v>
+        <v>2.210294040148526</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.2646025148136602</v>
+        <v>0.4442834114216225</v>
       </c>
       <c r="H20">
-        <v>0.3932672198373126</v>
+        <v>0.2369758256004246</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.234981576968607</v>
+        <v>1.39206860524061</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.9293066422224</v>
+        <v>6.007177863851666</v>
       </c>
       <c r="C21">
-        <v>0.5260412294085768</v>
+        <v>1.597882188687379</v>
       </c>
       <c r="D21">
-        <v>0.1176002416839594</v>
+        <v>0.3503185619837552</v>
       </c>
       <c r="E21">
-        <v>0.6951615291457358</v>
+        <v>2.538857555700361</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.2718106746817313</v>
+        <v>0.5112764513231411</v>
       </c>
       <c r="H21">
-        <v>0.3905451660811821</v>
+        <v>0.2576642405698237</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.244958081366974</v>
+        <v>1.578024807370582</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.064838877434227</v>
+        <v>6.45608897860194</v>
       </c>
       <c r="C22">
-        <v>0.5614165811499561</v>
+        <v>1.711293627966427</v>
       </c>
       <c r="D22">
-        <v>0.1247945480334067</v>
+        <v>0.3782221141902085</v>
       </c>
       <c r="E22">
-        <v>0.7460850311777563</v>
+        <v>2.760944357950734</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.2769106813025104</v>
+        <v>0.558065061121809</v>
       </c>
       <c r="H22">
-        <v>0.3890969592404616</v>
+        <v>0.2727081767227304</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.252985431721385</v>
+        <v>1.709107612914465</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.992527887369988</v>
+        <v>6.21614306745289</v>
       </c>
       <c r="C23">
-        <v>0.5425458412244097</v>
+        <v>1.650685477608761</v>
       </c>
       <c r="D23">
-        <v>0.1209516780324122</v>
+        <v>0.3632818987160107</v>
       </c>
       <c r="E23">
-        <v>0.7188904469686861</v>
+        <v>2.641663656460537</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.2741527882477186</v>
+        <v>0.5327953287128508</v>
       </c>
       <c r="H23">
-        <v>0.3898395061199409</v>
+        <v>0.2645293641166262</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.248562241473479</v>
+        <v>1.638202592645229</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.718120105102969</v>
+        <v>5.314482380980508</v>
       </c>
       <c r="C24">
-        <v>0.4708649896635961</v>
+        <v>1.422705919284169</v>
       </c>
       <c r="D24">
-        <v>0.1064659927423151</v>
+        <v>0.3076734143213997</v>
       </c>
       <c r="E24">
-        <v>0.616228518459053</v>
+        <v>2.205031973422749</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.2644911968344275</v>
+        <v>0.4432343153469986</v>
       </c>
       <c r="H24">
-        <v>0.3933172686800361</v>
+        <v>0.2366612150016323</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.23484374999731</v>
+        <v>1.389175604846002</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.421037123746487</v>
+        <v>4.353144307598711</v>
       </c>
       <c r="C25">
-        <v>0.3931162760424627</v>
+        <v>1.179225937449587</v>
       </c>
       <c r="D25">
-        <v>0.09098569162910053</v>
+        <v>0.2493649017348929</v>
       </c>
       <c r="E25">
-        <v>0.5061220949675516</v>
+        <v>1.758847579168076</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.2557071737778358</v>
+        <v>0.3574424078441467</v>
       </c>
       <c r="H25">
-        <v>0.3984769193678233</v>
+        <v>0.2122031448945165</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.226421932574908</v>
+        <v>1.155175006820429</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.651422714369801</v>
+        <v>0.9239066328631225</v>
       </c>
       <c r="C2">
-        <v>1.001217910262454</v>
+        <v>0.3143091234319968</v>
       </c>
       <c r="D2">
-        <v>0.207501203349608</v>
+        <v>0.1941409469803261</v>
       </c>
       <c r="E2">
-        <v>1.445299168461489</v>
+        <v>1.261896309599493</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3015485252269343</v>
+        <v>1.644481786617348</v>
       </c>
       <c r="H2">
-        <v>0.198105549653846</v>
+        <v>0.002239636926024247</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002200804951979052</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.00395784438544</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.009118268459318</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.223913524630888</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.006454489516699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.178134092334574</v>
+        <v>0.8030236861346509</v>
       </c>
       <c r="C3">
-        <v>0.8810161852912017</v>
+        <v>0.2719470632812886</v>
       </c>
       <c r="D3">
-        <v>0.1796335333077508</v>
+        <v>0.1683621986643828</v>
       </c>
       <c r="E3">
-        <v>1.239519549890744</v>
+        <v>1.09338729617923</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2673298760036431</v>
+        <v>1.500418046430383</v>
       </c>
       <c r="H3">
-        <v>0.1905983356959098</v>
+        <v>0.0008546340993578205</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.004052838302586625</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.9392176140621586</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9415929033496937</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.062784287109878</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9176887630379156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.888210424529518</v>
+        <v>0.7288261130977673</v>
       </c>
       <c r="C4">
-        <v>0.8073254553565334</v>
+        <v>0.2463848863990847</v>
       </c>
       <c r="D4">
-        <v>0.1627228948269135</v>
+        <v>0.1526919073293698</v>
       </c>
       <c r="E4">
-        <v>1.115736143871402</v>
+        <v>0.9905218940770624</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2478670301849846</v>
+        <v>1.412015638251546</v>
       </c>
       <c r="H4">
-        <v>0.1868826976083326</v>
+        <v>0.000315679767290078</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00559883780670134</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.8995371144699504</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8999411424306274</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9643352423235569</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8683265395655155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.770175969506681</v>
+        <v>0.698320552222242</v>
       </c>
       <c r="C5">
-        <v>0.777311225895204</v>
+        <v>0.2365578253522358</v>
       </c>
       <c r="D5">
-        <v>0.1558754643968285</v>
+        <v>0.1463393924332621</v>
       </c>
       <c r="E5">
-        <v>1.06583917411001</v>
+        <v>0.9487113774815015</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2402894969690195</v>
+        <v>1.373196399448759</v>
       </c>
       <c r="H5">
-        <v>0.1855774091361866</v>
+        <v>0.0001685954850714211</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.006408493404773452</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.8819562092886457</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8810109241095034</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9246390616619635</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8493952243258462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.750581568429709</v>
+        <v>0.6929299102999096</v>
       </c>
       <c r="C6">
-        <v>0.7723279476796847</v>
+        <v>0.2355312257385265</v>
       </c>
       <c r="D6">
-        <v>0.1547409152300219</v>
+        <v>0.1452846043321614</v>
       </c>
       <c r="E6">
-        <v>1.05758404384747</v>
+        <v>0.9417552860111442</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2390516292935132</v>
+        <v>1.363345115479731</v>
       </c>
       <c r="H6">
-        <v>0.1853728379637118</v>
+        <v>0.00014793697207649</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.006657090902280061</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.8773038887844251</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8755430177519443</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9184476296104265</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.846320189629111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.886618191914692</v>
+        <v>0.7275230325242319</v>
       </c>
       <c r="C7">
-        <v>0.8069206274993803</v>
+        <v>0.2478920161317433</v>
       </c>
       <c r="D7">
-        <v>0.162630379025174</v>
+        <v>0.1526005579562622</v>
       </c>
       <c r="E7">
-        <v>1.115061131078647</v>
+        <v>0.9898997022812921</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2477634496728172</v>
+        <v>1.402175653885266</v>
       </c>
       <c r="H7">
-        <v>0.1868642685523056</v>
+        <v>0.0003113358136248578</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.005886998091401807</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.8945607857747291</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.89333552296889</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9648778019072495</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8680665682424262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.488055305594401</v>
+        <v>0.8810127041302565</v>
       </c>
       <c r="C8">
-        <v>0.9597404136457897</v>
+        <v>0.3017898201257196</v>
       </c>
       <c r="D8">
-        <v>0.1978467836765674</v>
+        <v>0.1852078735772125</v>
       </c>
       <c r="E8">
-        <v>1.373750917521775</v>
+        <v>1.203565369736552</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2894066334690564</v>
+        <v>1.582395001958531</v>
       </c>
       <c r="H8">
-        <v>0.1953216271458302</v>
+        <v>0.001688012689080587</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003074130724273871</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.9753289881614933</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9774349152714734</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.169670669288735</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9747135329614309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.675802849233889</v>
+        <v>1.184362870568833</v>
       </c>
       <c r="C9">
-        <v>1.260994962818131</v>
+        <v>0.4086455367717292</v>
       </c>
       <c r="D9">
-        <v>0.2688170060620081</v>
+        <v>0.2506538564969532</v>
       </c>
       <c r="E9">
-        <v>1.906433961369743</v>
+        <v>1.628720077908341</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3850857417968712</v>
+        <v>1.954106528108838</v>
       </c>
       <c r="H9">
-        <v>0.2197780305326944</v>
+        <v>0.007124350753315523</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006835078203639711</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.143281380701978</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.15268876450132</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.574239452746212</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.229951798734447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.558145486959631</v>
+        <v>1.409367341032549</v>
       </c>
       <c r="C10">
-        <v>1.484350751009686</v>
+        <v>0.4867482131750478</v>
       </c>
       <c r="D10">
-        <v>0.3226161484945607</v>
+        <v>0.2998969708861523</v>
       </c>
       <c r="E10">
-        <v>2.321255769723237</v>
+        <v>1.847142109494555</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4665875231135317</v>
+        <v>2.175772077552864</v>
       </c>
       <c r="H10">
-        <v>0.2437375144292133</v>
+        <v>0.01268552068757112</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001568747662226144</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.241079039627351</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.250285173886496</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.872557582745912</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.453722983755313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.962822453947808</v>
+        <v>1.522959243002617</v>
       </c>
       <c r="C11">
-        <v>1.586671563726782</v>
+        <v>0.4861176493751316</v>
       </c>
       <c r="D11">
-        <v>0.3475727277881759</v>
+        <v>0.3217608824507323</v>
       </c>
       <c r="E11">
-        <v>2.517162801795934</v>
+        <v>1.180224959537313</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5067675448271984</v>
+        <v>1.852938940312953</v>
       </c>
       <c r="H11">
-        <v>0.256238166340168</v>
+        <v>0.02917372351023317</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002381455813837086</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.073573506347742</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.05426793322917</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.976192048728507</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.565440786923801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.116645438876333</v>
+        <v>1.57373549527361</v>
       </c>
       <c r="C12">
-        <v>1.625545884918552</v>
+        <v>0.4667852628537332</v>
       </c>
       <c r="D12">
-        <v>0.3571038813797429</v>
+        <v>0.3297608058890944</v>
       </c>
       <c r="E12">
-        <v>2.592589458254608</v>
+        <v>0.7013711402071436</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5224923845411666</v>
+        <v>1.571103988504177</v>
       </c>
       <c r="H12">
-        <v>0.2612304810727011</v>
+        <v>0.06594828688416499</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002331449649521922</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.9297029167976518</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.8930282795211042</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.998826904491068</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.609365992661793</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.083489251894434</v>
+        <v>1.577182959053857</v>
       </c>
       <c r="C13">
-        <v>1.61716749998061</v>
+        <v>0.4347946003820198</v>
       </c>
       <c r="D13">
-        <v>0.3550474000703616</v>
+        <v>0.327406001968825</v>
       </c>
       <c r="E13">
-        <v>2.576286188997827</v>
+        <v>0.3404264085860405</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5190820129168117</v>
+        <v>1.290767180175578</v>
       </c>
       <c r="H13">
-        <v>0.2601433097229204</v>
+        <v>0.1197941096960591</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001978210727918928</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7885782504606311</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.7395413165236917</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.962027140032035</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.59983054180617</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.975465271893484</v>
+        <v>1.557958470633821</v>
       </c>
       <c r="C14">
-        <v>1.58986706651109</v>
+        <v>0.4075198021688777</v>
       </c>
       <c r="D14">
-        <v>0.3483551772640112</v>
+        <v>0.3210955784277303</v>
       </c>
       <c r="E14">
-        <v>2.52334204326111</v>
+        <v>0.1596399298328492</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5080506371860878</v>
+        <v>1.097710620624852</v>
       </c>
       <c r="H14">
-        <v>0.256643530659872</v>
+        <v>0.1679084885238211</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001743560726285232</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6921069303209606</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.636907207553115</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.910067874831299</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.569020884296236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.909376454574385</v>
+        <v>1.542643354444522</v>
       </c>
       <c r="C15">
-        <v>1.573162173427306</v>
+        <v>0.3987980011530681</v>
       </c>
       <c r="D15">
-        <v>0.3442668504677329</v>
+        <v>0.3173530084371521</v>
       </c>
       <c r="E15">
-        <v>2.491080441284595</v>
+        <v>0.1245270932042857</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5013619560851481</v>
+        <v>1.046055257846191</v>
       </c>
       <c r="H15">
-        <v>0.2545343870355765</v>
+        <v>0.1800063266332756</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001759752698477612</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6667503478134051</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6102795081724537</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.885261678588705</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.550366178498251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.531774053613901</v>
+        <v>1.44390947590972</v>
       </c>
       <c r="C16">
-        <v>1.477680290893431</v>
+        <v>0.3736534020996487</v>
       </c>
       <c r="D16">
-        <v>0.3209958273004077</v>
+        <v>0.2963949224144358</v>
       </c>
       <c r="E16">
-        <v>2.308614580169007</v>
+        <v>0.1207492705027029</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4640293665407711</v>
+        <v>1.010338240795264</v>
       </c>
       <c r="H16">
-        <v>0.2429551385752688</v>
+        <v>0.1657716845925279</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001594415678162875</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6540952258553574</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.6000239868333281</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.765760508232404</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.446637655789601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.301043376740836</v>
+        <v>1.378542727854381</v>
       </c>
       <c r="C17">
-        <v>1.419305169012659</v>
+        <v>0.3687654624835659</v>
       </c>
       <c r="D17">
-        <v>0.3068511328065426</v>
+        <v>0.2837501505815965</v>
       </c>
       <c r="E17">
-        <v>2.198659218911459</v>
+        <v>0.1999019851296282</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4419648502786941</v>
+        <v>1.08191532023686</v>
       </c>
       <c r="H17">
-        <v>0.2362809473456764</v>
+        <v>0.127423686499526</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001635057630624992</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6940244755294316</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.6445264463012137</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.701790043909142</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.385675783549061</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.168636253974057</v>
+        <v>1.335372484693096</v>
       </c>
       <c r="C18">
-        <v>1.385795006853925</v>
+        <v>0.3796316194078031</v>
       </c>
       <c r="D18">
-        <v>0.2987602155707236</v>
+        <v>0.276721825485069</v>
       </c>
       <c r="E18">
-        <v>2.13607982027338</v>
+        <v>0.4215270407293161</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4295619525945256</v>
+        <v>1.27140526742258</v>
       </c>
       <c r="H18">
-        <v>0.2325909836255562</v>
+        <v>0.07494852854265588</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0014183993700847</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7922428158393586</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7525096488590535</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.677103794182329</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.351533360814017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.123854467146145</v>
+        <v>1.31180419662897</v>
       </c>
       <c r="C19">
-        <v>1.374459610269525</v>
+        <v>0.4061098991292624</v>
       </c>
       <c r="D19">
-        <v>0.296028131540254</v>
+        <v>0.2746956837945902</v>
       </c>
       <c r="E19">
-        <v>2.114999782941737</v>
+        <v>0.8382413669860398</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4254102056822688</v>
+        <v>1.548116669344807</v>
       </c>
       <c r="H19">
-        <v>0.231366379977004</v>
+        <v>0.03126542388243791</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001529866150378645</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9326430513616231</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9071461190300099</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.68828300327354</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.340126012691627</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.325572950143169</v>
+        <v>1.347274754823161</v>
       </c>
       <c r="C20">
-        <v>1.425512333908614</v>
+        <v>0.4710652322193027</v>
       </c>
       <c r="D20">
-        <v>0.308352152272505</v>
+        <v>0.2868329177867395</v>
       </c>
       <c r="E20">
-        <v>2.210294040148526</v>
+        <v>1.78509077291281</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4442834114216225</v>
+        <v>2.08614676086961</v>
       </c>
       <c r="H20">
-        <v>0.2369758256004246</v>
+        <v>0.01101642879378506</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001900317194333923</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.19953159837408</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.203707445605559</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.797081360499021</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.39206860524061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.007177863851666</v>
+        <v>1.519059850882059</v>
       </c>
       <c r="C21">
-        <v>1.597882188687379</v>
+        <v>0.5383284472851813</v>
       </c>
       <c r="D21">
-        <v>0.3503185619837552</v>
+        <v>0.3252840486647983</v>
       </c>
       <c r="E21">
-        <v>2.538857555700361</v>
+        <v>2.108713556683711</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5112764513231411</v>
+        <v>2.339847364536695</v>
       </c>
       <c r="H21">
-        <v>0.2576642405698237</v>
+        <v>0.01676986856861107</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00341091331435539</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.316416670388776</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.326133716428956</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.033395750791129</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.578024807370582</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.45608897860194</v>
+        <v>1.63378672726023</v>
       </c>
       <c r="C22">
-        <v>1.711293627966427</v>
+        <v>0.5786549512458237</v>
       </c>
       <c r="D22">
-        <v>0.3782221141902085</v>
+        <v>0.3507320800217286</v>
       </c>
       <c r="E22">
-        <v>2.760944357950734</v>
+        <v>2.271494378329876</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.558065061121809</v>
+        <v>2.494057154723635</v>
       </c>
       <c r="H22">
-        <v>0.2727081767227304</v>
+        <v>0.02081149126001947</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004710998810846689</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.387055979024439</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.400575377704953</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.185811599902735</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.709107612914465</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.21614306745289</v>
+        <v>1.57363739741379</v>
       </c>
       <c r="C23">
-        <v>1.650685477608761</v>
+        <v>0.5550391940721511</v>
       </c>
       <c r="D23">
-        <v>0.3632818987160107</v>
+        <v>0.3371284726554222</v>
       </c>
       <c r="E23">
-        <v>2.641663656460537</v>
+        <v>2.184569753574749</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5327953287128508</v>
+        <v>2.422807702781597</v>
       </c>
       <c r="H23">
-        <v>0.2645293641166262</v>
+        <v>0.01862228446029768</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003683949168301837</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.354927805606053</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.36838452903504</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.103060539701431</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.638202592645229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.314482380980508</v>
+        <v>1.345112662908718</v>
       </c>
       <c r="C24">
-        <v>1.422705919284169</v>
+        <v>0.4705403692308323</v>
       </c>
       <c r="D24">
-        <v>0.3076734143213997</v>
+        <v>0.2863032217861843</v>
       </c>
       <c r="E24">
-        <v>2.205031973422749</v>
+        <v>1.858558880765386</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4432343153469986</v>
+        <v>2.137857458722635</v>
       </c>
       <c r="H24">
-        <v>0.2366612150016323</v>
+        <v>0.01131702501831477</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001445330983805171</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.225623367180589</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.235243499516343</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.794433889693721</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.389175604846002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.353144307598711</v>
+        <v>1.100460871643605</v>
       </c>
       <c r="C25">
-        <v>1.179225937449587</v>
+        <v>0.3822381372232257</v>
       </c>
       <c r="D25">
-        <v>0.2493649017348929</v>
+        <v>0.2327392379998798</v>
       </c>
       <c r="E25">
-        <v>1.758847579168076</v>
+        <v>1.512725605180805</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3574424078441467</v>
+        <v>1.836225112561664</v>
       </c>
       <c r="H25">
-        <v>0.2122031448945165</v>
+        <v>0.005309655103751254</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001342932115488971</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.089058922861994</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.093782335719411</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.466062046344376</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.155175006820429</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9239066328631225</v>
+        <v>0.894551593642916</v>
       </c>
       <c r="C2">
-        <v>0.3143091234319968</v>
+        <v>0.3854592600955868</v>
       </c>
       <c r="D2">
-        <v>0.1941409469803261</v>
+        <v>0.1944728284888413</v>
       </c>
       <c r="E2">
-        <v>1.261896309599493</v>
+        <v>1.26525814551195</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.644481786617348</v>
+        <v>1.224097906005866</v>
       </c>
       <c r="H2">
-        <v>0.002239636926024247</v>
+        <v>0.002501806144647123</v>
       </c>
       <c r="I2">
-        <v>0.002200804951979052</v>
+        <v>0.001482753746469889</v>
       </c>
       <c r="J2">
-        <v>1.00395784438544</v>
+        <v>0.8263614862189002</v>
       </c>
       <c r="K2">
-        <v>1.009118268459318</v>
+        <v>0.7290998825494057</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3222732250798757</v>
       </c>
       <c r="M2">
-        <v>1.223913524630888</v>
+        <v>0.2300187676950856</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.278155943587223</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8030236861346509</v>
+        <v>0.7801686563581143</v>
       </c>
       <c r="C3">
-        <v>0.2719470632812886</v>
+        <v>0.3312036798033944</v>
       </c>
       <c r="D3">
-        <v>0.1683621986643828</v>
+        <v>0.1687494721836202</v>
       </c>
       <c r="E3">
-        <v>1.09338729617923</v>
+        <v>1.097436256297101</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.500418046430383</v>
+        <v>1.137987080086901</v>
       </c>
       <c r="H3">
-        <v>0.0008546340993578205</v>
+        <v>0.001082441798525124</v>
       </c>
       <c r="I3">
-        <v>0.004052838302586625</v>
+        <v>0.002656510515488986</v>
       </c>
       <c r="J3">
-        <v>0.9392176140621586</v>
+        <v>0.7831528291865339</v>
       </c>
       <c r="K3">
-        <v>0.9415929033496937</v>
+        <v>0.6967040634897046</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3179667079301325</v>
       </c>
       <c r="M3">
-        <v>1.062784287109878</v>
+        <v>0.2110927534415197</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.109679147015044</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7288261130977673</v>
+        <v>0.7098000629801504</v>
       </c>
       <c r="C4">
-        <v>0.2463848863990847</v>
+        <v>0.2984620595659351</v>
       </c>
       <c r="D4">
-        <v>0.1526919073293698</v>
+        <v>0.1530974591026251</v>
       </c>
       <c r="E4">
-        <v>0.9905218940770624</v>
+        <v>0.9948551539256272</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.412015638251546</v>
+        <v>1.085105402538233</v>
       </c>
       <c r="H4">
-        <v>0.000315679767290078</v>
+        <v>0.000485746826941913</v>
       </c>
       <c r="I4">
-        <v>0.00559883780670134</v>
+        <v>0.003684166965238322</v>
       </c>
       <c r="J4">
-        <v>0.8995371144699504</v>
+        <v>0.7562804194592019</v>
       </c>
       <c r="K4">
-        <v>0.8999411424306274</v>
+        <v>0.6764874483487588</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3149408168635617</v>
       </c>
       <c r="M4">
-        <v>0.9643352423235569</v>
+        <v>0.2001466961528706</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.006617912120191</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.698320552222242</v>
+        <v>0.6808518989412846</v>
       </c>
       <c r="C5">
-        <v>0.2365578253522358</v>
+        <v>0.2857342399947242</v>
       </c>
       <c r="D5">
-        <v>0.1463393924332621</v>
+        <v>0.1467492468920142</v>
       </c>
       <c r="E5">
-        <v>0.9487113774815015</v>
+        <v>0.9531314737283765</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.373196399448759</v>
+        <v>1.061439296156109</v>
       </c>
       <c r="H5">
-        <v>0.0001685954850714211</v>
+        <v>0.0003065639736639092</v>
       </c>
       <c r="I5">
-        <v>0.006408493404773452</v>
+        <v>0.004268384685435223</v>
       </c>
       <c r="J5">
-        <v>0.8819562092886457</v>
+        <v>0.7441357836763984</v>
       </c>
       <c r="K5">
-        <v>0.8810109241095034</v>
+        <v>0.6667908034876149</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3130233393107744</v>
       </c>
       <c r="M5">
-        <v>0.9246390616619635</v>
+        <v>0.1954113681963001</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9649878133590732</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6929299102999096</v>
+        <v>0.6757596856022587</v>
       </c>
       <c r="C6">
-        <v>0.2355312257385265</v>
+        <v>0.2842210850980109</v>
       </c>
       <c r="D6">
-        <v>0.1452846043321614</v>
+        <v>0.1456952911828893</v>
       </c>
       <c r="E6">
-        <v>0.9417552860111442</v>
+        <v>0.9461903660859292</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.363345115479731</v>
+        <v>1.054947439814669</v>
       </c>
       <c r="H6">
-        <v>0.00014793697207649</v>
+        <v>0.0002799953392020882</v>
       </c>
       <c r="I6">
-        <v>0.006657090902280061</v>
+        <v>0.00449156945029916</v>
       </c>
       <c r="J6">
-        <v>0.8773038887844251</v>
+        <v>0.7407644557686694</v>
       </c>
       <c r="K6">
-        <v>0.8755430177519443</v>
+        <v>0.6635006614859194</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3119823442243472</v>
       </c>
       <c r="M6">
-        <v>0.9184476296104265</v>
+        <v>0.1940959101148394</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9584336021927413</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7275230325242319</v>
+        <v>0.7089222779364093</v>
       </c>
       <c r="C7">
-        <v>0.2478920161317433</v>
+        <v>0.2991712231203394</v>
       </c>
       <c r="D7">
-        <v>0.1526005579562622</v>
+        <v>0.1530039092764781</v>
       </c>
       <c r="E7">
-        <v>0.9898997022812921</v>
+        <v>0.9942067384645128</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.402175653885266</v>
+        <v>1.080502022329171</v>
       </c>
       <c r="H7">
-        <v>0.0003113358136248578</v>
+        <v>0.0004794677248214363</v>
       </c>
       <c r="I7">
-        <v>0.005886998091401807</v>
+        <v>0.004011824464148717</v>
       </c>
       <c r="J7">
-        <v>0.8945607857747291</v>
+        <v>0.7430111561056378</v>
       </c>
       <c r="K7">
-        <v>0.89333552296889</v>
+        <v>0.6695856291476474</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3120615062117125</v>
       </c>
       <c r="M7">
-        <v>0.9648778019072495</v>
+        <v>0.1978577809503186</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.006516586345384</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8810127041302565</v>
+        <v>0.8550579679083796</v>
       </c>
       <c r="C8">
-        <v>0.3017898201257196</v>
+        <v>0.3662945640866724</v>
       </c>
       <c r="D8">
-        <v>0.1852078735772125</v>
+        <v>0.1855518377040397</v>
       </c>
       <c r="E8">
-        <v>1.203565369736552</v>
+        <v>1.207082392152856</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.582395001958531</v>
+        <v>1.194297091389416</v>
       </c>
       <c r="H8">
-        <v>0.001688012689080587</v>
+        <v>0.001937959373652154</v>
       </c>
       <c r="I8">
-        <v>0.003074130724273871</v>
+        <v>0.002206264585248974</v>
       </c>
       <c r="J8">
-        <v>0.9753289881614933</v>
+        <v>0.7757184705045006</v>
       </c>
       <c r="K8">
-        <v>0.9774349152714734</v>
+        <v>0.7047734600471074</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3155635732679301</v>
       </c>
       <c r="M8">
-        <v>1.169670669288735</v>
+        <v>0.218735566319026</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.219543404932608</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.184362870568833</v>
+        <v>1.141256507682414</v>
       </c>
       <c r="C9">
-        <v>0.4086455367717292</v>
+        <v>0.5027950687338603</v>
       </c>
       <c r="D9">
-        <v>0.2506538564969532</v>
+        <v>0.2507367663322668</v>
       </c>
       <c r="E9">
-        <v>1.628720077908341</v>
+        <v>1.629513486348174</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.954106528108838</v>
+        <v>1.420869454324901</v>
       </c>
       <c r="H9">
-        <v>0.007124350753315523</v>
+        <v>0.007211115468892748</v>
       </c>
       <c r="I9">
-        <v>0.0006835078203639711</v>
+        <v>0.000807916397485009</v>
       </c>
       <c r="J9">
-        <v>1.143281380701978</v>
+        <v>0.8774947113283247</v>
       </c>
       <c r="K9">
-        <v>1.15268876450132</v>
+        <v>0.78746444946308</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3259948896894684</v>
       </c>
       <c r="M9">
-        <v>1.574239452746212</v>
+        <v>0.2706738450337198</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.641291608484977</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.409367341032549</v>
+        <v>1.355148465839676</v>
       </c>
       <c r="C10">
-        <v>0.4867482131750478</v>
+        <v>0.5965197691920707</v>
       </c>
       <c r="D10">
-        <v>0.2998969708861523</v>
+        <v>0.2996380992705809</v>
       </c>
       <c r="E10">
-        <v>1.847142109494555</v>
+        <v>1.844841945508065</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.175772077552864</v>
+        <v>1.568323519909114</v>
       </c>
       <c r="H10">
-        <v>0.01268552068757112</v>
+        <v>0.01239140669117766</v>
       </c>
       <c r="I10">
-        <v>0.001568747662226144</v>
+        <v>0.001770158040244496</v>
       </c>
       <c r="J10">
-        <v>1.241079039627351</v>
+        <v>0.8800440172665844</v>
       </c>
       <c r="K10">
-        <v>1.250285173886496</v>
+        <v>0.8155259626889801</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3206022989956097</v>
       </c>
       <c r="M10">
-        <v>1.872557582745912</v>
+        <v>0.2999628157219121</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.947130595706057</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.522959243002617</v>
+        <v>1.474375718096525</v>
       </c>
       <c r="C11">
-        <v>0.4861176493751316</v>
+        <v>0.5764936797370126</v>
       </c>
       <c r="D11">
-        <v>0.3217608824507323</v>
+        <v>0.3214043822656549</v>
       </c>
       <c r="E11">
-        <v>1.180224959537313</v>
+        <v>1.177976361744541</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.852938940312953</v>
+        <v>1.368149729959441</v>
       </c>
       <c r="H11">
-        <v>0.02917372351023317</v>
+        <v>0.02883349318426554</v>
       </c>
       <c r="I11">
-        <v>0.002381455813837086</v>
+        <v>0.002634264653377016</v>
       </c>
       <c r="J11">
-        <v>1.073573506347742</v>
+        <v>0.6683937935080309</v>
       </c>
       <c r="K11">
-        <v>1.05426793322917</v>
+        <v>0.6640507648065608</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2606358665705528</v>
       </c>
       <c r="M11">
-        <v>1.976192048728507</v>
+        <v>0.2476537829264771</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.039616937877241</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.57373549527361</v>
+        <v>1.531327562746043</v>
       </c>
       <c r="C12">
-        <v>0.4667852628537332</v>
+        <v>0.5409498695469779</v>
       </c>
       <c r="D12">
-        <v>0.3297608058890944</v>
+        <v>0.3294152268826309</v>
       </c>
       <c r="E12">
-        <v>0.7013711402071436</v>
+        <v>0.6997815833448868</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.571103988504177</v>
+        <v>1.181113730334232</v>
       </c>
       <c r="H12">
-        <v>0.06594828688416499</v>
+        <v>0.06565906419643142</v>
       </c>
       <c r="I12">
-        <v>0.002331449649521922</v>
+        <v>0.002595871240833603</v>
       </c>
       <c r="J12">
-        <v>0.9297029167976518</v>
+        <v>0.5440133424409908</v>
       </c>
       <c r="K12">
-        <v>0.8930282795211042</v>
+        <v>0.5562531850016512</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2212747933933628</v>
       </c>
       <c r="M12">
-        <v>1.998826904491068</v>
+        <v>0.2065859827515411</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.053137722388811</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.577182959053857</v>
+        <v>1.540923658224642</v>
       </c>
       <c r="C13">
-        <v>0.4347946003820198</v>
+        <v>0.4959204809245534</v>
       </c>
       <c r="D13">
-        <v>0.327406001968825</v>
+        <v>0.3271722638706649</v>
       </c>
       <c r="E13">
-        <v>0.3404264085860405</v>
+        <v>0.3396723780693804</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.290767180175578</v>
+        <v>0.978988164791545</v>
       </c>
       <c r="H13">
-        <v>0.1197941096960591</v>
+        <v>0.1196203870946704</v>
       </c>
       <c r="I13">
-        <v>0.001978210727918928</v>
+        <v>0.002299173683727673</v>
       </c>
       <c r="J13">
-        <v>0.7885782504606311</v>
+        <v>0.4744370795568358</v>
       </c>
       <c r="K13">
-        <v>0.7395413165236917</v>
+        <v>0.469604751811751</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1919771377152379</v>
       </c>
       <c r="M13">
-        <v>1.962027140032035</v>
+        <v>0.1704965307532831</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.009570866084005</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.557958470633821</v>
+        <v>1.525966748874339</v>
       </c>
       <c r="C14">
-        <v>0.4075198021688777</v>
+        <v>0.4607818502107364</v>
       </c>
       <c r="D14">
-        <v>0.3210955784277303</v>
+        <v>0.3209780626808083</v>
       </c>
       <c r="E14">
-        <v>0.1596399298328492</v>
+        <v>0.1593607997644781</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.097710620624852</v>
+        <v>0.8341537463452084</v>
       </c>
       <c r="H14">
-        <v>0.1679084885238211</v>
+        <v>0.1678277217210962</v>
       </c>
       <c r="I14">
-        <v>0.001743560726285232</v>
+        <v>0.00211261173786248</v>
       </c>
       <c r="J14">
-        <v>0.6921069303209606</v>
+        <v>0.4440305218018636</v>
       </c>
       <c r="K14">
-        <v>0.636907207553115</v>
+        <v>0.4171530617900174</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1751308037170389</v>
       </c>
       <c r="M14">
-        <v>1.910067874831299</v>
+        <v>0.1473776525081547</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.953781211045367</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.542643354444522</v>
+        <v>1.511736463400723</v>
       </c>
       <c r="C15">
-        <v>0.3987980011530681</v>
+        <v>0.4505126805054829</v>
       </c>
       <c r="D15">
-        <v>0.3173530084371521</v>
+        <v>0.3172832484693373</v>
       </c>
       <c r="E15">
-        <v>0.1245270932042857</v>
+        <v>0.1243750883219654</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.046055257846191</v>
+        <v>0.7935758536951028</v>
       </c>
       <c r="H15">
-        <v>0.1800063266332756</v>
+        <v>0.1799595246712187</v>
       </c>
       <c r="I15">
-        <v>0.001759752698477612</v>
+        <v>0.002160572515524706</v>
       </c>
       <c r="J15">
-        <v>0.6667503478134051</v>
+        <v>0.4424671031473224</v>
       </c>
       <c r="K15">
-        <v>0.6102795081724537</v>
+        <v>0.4055525401461573</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1717572776750558</v>
       </c>
       <c r="M15">
-        <v>1.885261678588705</v>
+        <v>0.1417285206218679</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.928404539069163</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.44390947590972</v>
+        <v>1.413466032145635</v>
       </c>
       <c r="C16">
-        <v>0.3736534020996487</v>
+        <v>0.427891282729405</v>
       </c>
       <c r="D16">
-        <v>0.2963949224144358</v>
+        <v>0.2964997942933252</v>
       </c>
       <c r="E16">
-        <v>0.1207492705027029</v>
+        <v>0.1209827491847939</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.010338240795264</v>
+        <v>0.7534663585300763</v>
       </c>
       <c r="H16">
-        <v>0.1657716845925279</v>
+        <v>0.1658368425626549</v>
       </c>
       <c r="I16">
-        <v>0.001594415678162875</v>
+        <v>0.001983907185003631</v>
       </c>
       <c r="J16">
-        <v>0.6540952258553574</v>
+        <v>0.4995466434835265</v>
       </c>
       <c r="K16">
-        <v>0.6000239868333281</v>
+        <v>0.4199845088824503</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1801377905199857</v>
       </c>
       <c r="M16">
-        <v>1.765760508232404</v>
+        <v>0.1426349360871235</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.812044671961132</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.378542727854381</v>
+        <v>1.346775480373367</v>
       </c>
       <c r="C17">
-        <v>0.3687654624835659</v>
+        <v>0.4281253976512005</v>
       </c>
       <c r="D17">
-        <v>0.2837501505815965</v>
+        <v>0.2839182884111864</v>
       </c>
       <c r="E17">
-        <v>0.1999019851296282</v>
+        <v>0.200369720610162</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.08191532023686</v>
+        <v>0.7989838994483733</v>
       </c>
       <c r="H17">
-        <v>0.127423686499526</v>
+        <v>0.1275265590202821</v>
       </c>
       <c r="I17">
-        <v>0.001635057630624992</v>
+        <v>0.001986723027583182</v>
       </c>
       <c r="J17">
-        <v>0.6940244755294316</v>
+        <v>0.5575177136484797</v>
       </c>
       <c r="K17">
-        <v>0.6445264463012137</v>
+        <v>0.457678485343564</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1957559540012959</v>
       </c>
       <c r="M17">
-        <v>1.701790043909142</v>
+        <v>0.154527219218803</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.751637584318559</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.335372484693096</v>
+        <v>1.299868940323563</v>
       </c>
       <c r="C18">
-        <v>0.3796316194078031</v>
+        <v>0.4488153857491</v>
       </c>
       <c r="D18">
-        <v>0.276721825485069</v>
+        <v>0.2768823924288171</v>
       </c>
       <c r="E18">
-        <v>0.4215270407293161</v>
+        <v>0.4221704483591751</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.27140526742258</v>
+        <v>0.9301382768831985</v>
       </c>
       <c r="H18">
-        <v>0.07494852854265588</v>
+        <v>0.07505529606077488</v>
       </c>
       <c r="I18">
-        <v>0.0014183993700847</v>
+        <v>0.001715262064244882</v>
       </c>
       <c r="J18">
-        <v>0.7922428158393586</v>
+        <v>0.6407592126712842</v>
       </c>
       <c r="K18">
-        <v>0.7525096488590535</v>
+        <v>0.5303713633637059</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2234806774180385</v>
       </c>
       <c r="M18">
-        <v>1.677103794182329</v>
+        <v>0.1810242129202244</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.732624894571757</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.31180419662897</v>
+        <v>1.270884531209589</v>
       </c>
       <c r="C19">
-        <v>0.4061098991292624</v>
+        <v>0.4892043978836114</v>
       </c>
       <c r="D19">
-        <v>0.2746956837945902</v>
+        <v>0.2747944387114529</v>
       </c>
       <c r="E19">
-        <v>0.8382413669860398</v>
+        <v>0.8388199034042145</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.548116669344807</v>
+        <v>1.121868581959646</v>
       </c>
       <c r="H19">
-        <v>0.03126542388243791</v>
+        <v>0.03134418196169264</v>
       </c>
       <c r="I19">
-        <v>0.001529866150378645</v>
+        <v>0.001882736052957412</v>
       </c>
       <c r="J19">
-        <v>0.9326430513616231</v>
+        <v>0.7439543828633077</v>
       </c>
       <c r="K19">
-        <v>0.9071461190300099</v>
+        <v>0.6283434579363316</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2597794486468388</v>
       </c>
       <c r="M19">
-        <v>1.68828300327354</v>
+        <v>0.2182795261298267</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.750955024109061</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.347274754823161</v>
+        <v>1.295459938884562</v>
       </c>
       <c r="C20">
-        <v>0.4710652322193027</v>
+        <v>0.5794251268401069</v>
       </c>
       <c r="D20">
-        <v>0.2868329177867395</v>
+        <v>0.2867004093331786</v>
       </c>
       <c r="E20">
-        <v>1.78509077291281</v>
+        <v>1.783894599947928</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.08614676086961</v>
+        <v>1.496528552005856</v>
       </c>
       <c r="H20">
-        <v>0.01101642879378506</v>
+        <v>0.01086871199138306</v>
       </c>
       <c r="I20">
-        <v>0.001900317194333923</v>
+        <v>0.002302273184788817</v>
       </c>
       <c r="J20">
-        <v>1.19953159837408</v>
+        <v>0.9002232178414999</v>
       </c>
       <c r="K20">
-        <v>1.203707445605559</v>
+        <v>0.8015322965896203</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3196277265360052</v>
       </c>
       <c r="M20">
-        <v>1.797081360499021</v>
+        <v>0.2895031701635986</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.871351292878614</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.519059850882059</v>
+        <v>1.462530647099243</v>
       </c>
       <c r="C21">
-        <v>0.5383284472851813</v>
+        <v>0.6472172531148033</v>
       </c>
       <c r="D21">
-        <v>0.3252840486647983</v>
+        <v>0.3247029461258535</v>
       </c>
       <c r="E21">
-        <v>2.108713556683711</v>
+        <v>2.103472326001679</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.339847364536695</v>
+        <v>1.723100640399423</v>
       </c>
       <c r="H21">
-        <v>0.01676986856861107</v>
+        <v>0.01606999918740093</v>
       </c>
       <c r="I21">
-        <v>0.00341091331435539</v>
+        <v>0.003501717212967215</v>
       </c>
       <c r="J21">
-        <v>1.316416670388776</v>
+        <v>0.7693125026052314</v>
       </c>
       <c r="K21">
-        <v>1.326133716428956</v>
+        <v>0.8127622288030096</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3120637195018219</v>
       </c>
       <c r="M21">
-        <v>2.033395750791129</v>
+        <v>0.3085767518587303</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.104201704992676</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.63378672726023</v>
+        <v>1.574734583680339</v>
       </c>
       <c r="C22">
-        <v>0.5786549512458237</v>
+        <v>0.685451021009726</v>
       </c>
       <c r="D22">
-        <v>0.3507320800217286</v>
+        <v>0.3498062508361386</v>
       </c>
       <c r="E22">
-        <v>2.271494378329876</v>
+        <v>2.263282988661473</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.494057154723635</v>
+        <v>1.871111573771969</v>
       </c>
       <c r="H22">
-        <v>0.02081149126001947</v>
+        <v>0.01966715801517172</v>
       </c>
       <c r="I22">
-        <v>0.004710998810846689</v>
+        <v>0.004311664953486449</v>
       </c>
       <c r="J22">
-        <v>1.387055979024439</v>
+        <v>0.6783822664035597</v>
       </c>
       <c r="K22">
-        <v>1.400575377704953</v>
+        <v>0.8138092336121687</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3050407058443128</v>
       </c>
       <c r="M22">
-        <v>2.185811599902735</v>
+        <v>0.3188745940261128</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.252624669446675</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.57363739741379</v>
+        <v>1.514973871661454</v>
       </c>
       <c r="C23">
-        <v>0.5550391940721511</v>
+        <v>0.6650902781736932</v>
       </c>
       <c r="D23">
-        <v>0.3371284726554222</v>
+        <v>0.3364020736758135</v>
       </c>
       <c r="E23">
-        <v>2.184569753574749</v>
+        <v>2.178067391909536</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.422807702781597</v>
+        <v>1.792076262707411</v>
       </c>
       <c r="H23">
-        <v>0.01862228446029768</v>
+        <v>0.01773554991971404</v>
       </c>
       <c r="I23">
-        <v>0.003683949168301837</v>
+        <v>0.003509717070798501</v>
       </c>
       <c r="J23">
-        <v>1.354927805606053</v>
+        <v>0.7495832153004471</v>
       </c>
       <c r="K23">
-        <v>1.36838452903504</v>
+        <v>0.8235976054192804</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3123392830716867</v>
       </c>
       <c r="M23">
-        <v>2.103060539701431</v>
+        <v>0.3175581411442678</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.173630053075243</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.345112662908718</v>
+        <v>1.292510815904734</v>
       </c>
       <c r="C24">
-        <v>0.4705403692308323</v>
+        <v>0.5805052754355415</v>
       </c>
       <c r="D24">
-        <v>0.2863032217861843</v>
+        <v>0.2861603343258423</v>
       </c>
       <c r="E24">
-        <v>1.858558880765386</v>
+        <v>1.857231328806037</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.137857458722635</v>
+        <v>1.532558974431595</v>
       </c>
       <c r="H24">
-        <v>0.01131702501831477</v>
+        <v>0.011154310034245</v>
       </c>
       <c r="I24">
-        <v>0.001445330983805171</v>
+        <v>0.001743775923033652</v>
       </c>
       <c r="J24">
-        <v>1.225623367180589</v>
+        <v>0.9203617305096827</v>
       </c>
       <c r="K24">
-        <v>1.235243499516343</v>
+        <v>0.8223596050693729</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3273568889546823</v>
       </c>
       <c r="M24">
-        <v>1.794433889693721</v>
+        <v>0.297408108858157</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.869614086172987</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.100460871643605</v>
+        <v>1.061996743804514</v>
       </c>
       <c r="C25">
-        <v>0.3822381372232257</v>
+        <v>0.4693515091466907</v>
       </c>
       <c r="D25">
-        <v>0.2327392379998798</v>
+        <v>0.2329224433037922</v>
       </c>
       <c r="E25">
-        <v>1.512725605180805</v>
+        <v>1.514506558282122</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.836225112561664</v>
+        <v>1.342878806937563</v>
       </c>
       <c r="H25">
-        <v>0.005309655103751254</v>
+        <v>0.005489667816870325</v>
       </c>
       <c r="I25">
-        <v>0.001342932115488971</v>
+        <v>0.00138500489883242</v>
       </c>
       <c r="J25">
-        <v>1.089058922861994</v>
+        <v>0.8570188187885037</v>
       </c>
       <c r="K25">
-        <v>1.093782335719411</v>
+        <v>0.7603783742784245</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.321623801365476</v>
       </c>
       <c r="M25">
-        <v>1.466062046344376</v>
+        <v>0.2541658115070362</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.529169489347339</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
